--- a/output/emis_table_KVIK.xlsx
+++ b/output/emis_table_KVIK.xlsx
@@ -530,22 +530,22 @@
         <v>16</v>
       </c>
       <c r="C2" t="n">
-        <v>1.236</v>
+        <v>1.522</v>
       </c>
       <c r="D2" t="n">
-        <v>0.324</v>
+        <v>0.317</v>
       </c>
       <c r="E2" t="n">
-        <v>1.561</v>
+        <v>1.839</v>
       </c>
       <c r="F2" t="n">
         <v>0.012</v>
       </c>
       <c r="G2" t="n">
-        <v>29.233</v>
+        <v>28.524</v>
       </c>
       <c r="H2" t="n">
-        <v>17.766</v>
+        <v>26.262</v>
       </c>
       <c r="I2" t="n">
         <v>7301.987</v>
@@ -560,10 +560,10 @@
         <v>100</v>
       </c>
       <c r="M2" t="n">
-        <v>89.452</v>
+        <v>85.013</v>
       </c>
       <c r="N2" t="n">
-        <v>450.692</v>
+        <v>428.327</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
@@ -577,22 +577,22 @@
         <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>0.229</v>
+        <v>0.157</v>
       </c>
       <c r="D3" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="E3" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="F3" t="n">
         <v>0.015</v>
       </c>
       <c r="G3" t="n">
-        <v>31.732</v>
+        <v>31.91</v>
       </c>
       <c r="H3" t="n">
-        <v>-11.548</v>
+        <v>-13.686</v>
       </c>
       <c r="I3" t="n">
         <v>2895.335</v>
@@ -607,10 +607,10 @@
         <v>100</v>
       </c>
       <c r="M3" t="n">
-        <v>105.104</v>
+        <v>106.221</v>
       </c>
       <c r="N3" t="n">
-        <v>209.976</v>
+        <v>212.207</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -624,22 +624,22 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>0.229</v>
+        <v>0.157</v>
       </c>
       <c r="D4" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="E4" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="F4" t="n">
         <v>0.015</v>
       </c>
       <c r="G4" t="n">
-        <v>31.732</v>
+        <v>31.91</v>
       </c>
       <c r="H4" t="n">
-        <v>-11.548</v>
+        <v>-13.686</v>
       </c>
       <c r="I4" t="n">
         <v>3580.539</v>
@@ -654,10 +654,10 @@
         <v>100</v>
       </c>
       <c r="M4" t="n">
-        <v>105.104</v>
+        <v>106.221</v>
       </c>
       <c r="N4" t="n">
-        <v>259.668</v>
+        <v>262.427</v>
       </c>
       <c r="O4" t="s">
         <v>17</v>
@@ -671,22 +671,22 @@
         <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>0.229</v>
+        <v>0.157</v>
       </c>
       <c r="D5" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="E5" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="F5" t="n">
         <v>0.015</v>
       </c>
       <c r="G5" t="n">
-        <v>31.732</v>
+        <v>31.91</v>
       </c>
       <c r="H5" t="n">
-        <v>-11.548</v>
+        <v>-13.686</v>
       </c>
       <c r="I5" t="n">
         <v>1101.603</v>
@@ -701,10 +701,10 @@
         <v>100</v>
       </c>
       <c r="M5" t="n">
-        <v>105.104</v>
+        <v>106.221</v>
       </c>
       <c r="N5" t="n">
-        <v>79.89</v>
+        <v>80.739</v>
       </c>
       <c r="O5" t="s">
         <v>17</v>
@@ -718,22 +718,22 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.229</v>
+        <v>0.157</v>
       </c>
       <c r="D6" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="E6" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="F6" t="n">
         <v>0.015</v>
       </c>
       <c r="G6" t="n">
-        <v>31.732</v>
+        <v>31.91</v>
       </c>
       <c r="H6" t="n">
-        <v>-11.548</v>
+        <v>-13.686</v>
       </c>
       <c r="I6" t="n">
         <v>694.594</v>
@@ -748,10 +748,10 @@
         <v>100</v>
       </c>
       <c r="M6" t="n">
-        <v>105.104</v>
+        <v>106.221</v>
       </c>
       <c r="N6" t="n">
-        <v>50.373</v>
+        <v>50.909</v>
       </c>
       <c r="O6" t="s">
         <v>17</v>
@@ -765,22 +765,22 @@
         <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>2.275</v>
+        <v>2.334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.136</v>
+        <v>0.135</v>
       </c>
       <c r="E7" t="n">
-        <v>2.411</v>
+        <v>2.469</v>
       </c>
       <c r="F7" t="n">
         <v>0.018</v>
       </c>
       <c r="G7" t="n">
-        <v>23.026</v>
+        <v>22.835</v>
       </c>
       <c r="H7" t="n">
-        <v>49.163</v>
+        <v>50.976</v>
       </c>
       <c r="I7" t="n">
         <v>4489.55</v>
@@ -795,10 +795,10 @@
         <v>100</v>
       </c>
       <c r="M7" t="n">
-        <v>108.282</v>
+        <v>107.049</v>
       </c>
       <c r="N7" t="n">
-        <v>388.911</v>
+        <v>384.483</v>
       </c>
       <c r="O7" t="s">
         <v>23</v>
@@ -812,22 +812,22 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>1.851</v>
+        <v>1.879</v>
       </c>
       <c r="D8" t="n">
-        <v>0.144</v>
+        <v>0.143</v>
       </c>
       <c r="E8" t="n">
-        <v>1.995</v>
+        <v>2.023</v>
       </c>
       <c r="F8" t="n">
         <v>0.016</v>
       </c>
       <c r="G8" t="n">
-        <v>24.394</v>
+        <v>24.303</v>
       </c>
       <c r="H8" t="n">
-        <v>35.602</v>
+        <v>36.462</v>
       </c>
       <c r="I8" t="n">
         <v>3414.587</v>
@@ -842,10 +842,10 @@
         <v>100</v>
       </c>
       <c r="M8" t="n">
-        <v>117.128</v>
+        <v>116.543</v>
       </c>
       <c r="N8" t="n">
-        <v>319.954</v>
+        <v>318.357</v>
       </c>
       <c r="O8" t="s">
         <v>23</v>
@@ -859,22 +859,22 @@
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>1.387</v>
+        <v>1.351</v>
       </c>
       <c r="D9" t="n">
-        <v>0.153</v>
+        <v>0.154</v>
       </c>
       <c r="E9" t="n">
-        <v>1.539</v>
+        <v>1.504</v>
       </c>
       <c r="F9" t="n">
         <v>0.013</v>
       </c>
       <c r="G9" t="n">
-        <v>25.894</v>
+        <v>26.009</v>
       </c>
       <c r="H9" t="n">
-        <v>20.785</v>
+        <v>19.69</v>
       </c>
       <c r="I9" t="n">
         <v>1038.461</v>
@@ -889,10 +889,10 @@
         <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>126.827</v>
+        <v>127.572</v>
       </c>
       <c r="N9" t="n">
-        <v>105.364</v>
+        <v>105.983</v>
       </c>
       <c r="O9" t="s">
         <v>23</v>
@@ -906,22 +906,22 @@
         <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>2.23</v>
+        <v>2.535</v>
       </c>
       <c r="D10" t="n">
-        <v>0.129</v>
+        <v>0.123</v>
       </c>
       <c r="E10" t="n">
-        <v>2.359</v>
+        <v>2.658</v>
       </c>
       <c r="F10" t="n">
         <v>0.017</v>
       </c>
       <c r="G10" t="n">
-        <v>21.831</v>
+        <v>20.848</v>
       </c>
       <c r="H10" t="n">
-        <v>48.867</v>
+        <v>58.206</v>
       </c>
       <c r="I10" t="n">
         <v>2714.889</v>
@@ -936,9 +936,11 @@
         <v>100</v>
       </c>
       <c r="M10" t="n">
-        <v>103.366</v>
-      </c>
-      <c r="N10"/>
+        <v>97.013</v>
+      </c>
+      <c r="N10" t="n">
+        <v>203.433</v>
+      </c>
       <c r="O10" t="s">
         <v>23</v>
       </c>
@@ -951,22 +953,22 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>2.751</v>
+        <v>2.493</v>
       </c>
       <c r="D11" t="n">
-        <v>0.119</v>
+        <v>0.124</v>
       </c>
       <c r="E11" t="n">
-        <v>2.87</v>
+        <v>2.617</v>
       </c>
       <c r="F11" t="n">
         <v>0.016</v>
       </c>
       <c r="G11" t="n">
-        <v>20.148</v>
+        <v>20.982</v>
       </c>
       <c r="H11" t="n">
-        <v>64.343</v>
+        <v>56.417</v>
       </c>
       <c r="I11" t="n">
         <v>974.173</v>
@@ -981,10 +983,10 @@
         <v>100</v>
       </c>
       <c r="M11" t="n">
-        <v>92.488</v>
+        <v>97.88</v>
       </c>
       <c r="N11" t="n">
-        <v>72.079</v>
+        <v>76.281</v>
       </c>
       <c r="O11" t="s">
         <v>23</v>
@@ -998,22 +1000,22 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>3.176</v>
+        <v>2.913</v>
       </c>
       <c r="D12" t="n">
-        <v>0.111</v>
+        <v>0.116</v>
       </c>
       <c r="E12" t="n">
-        <v>3.287</v>
+        <v>3.029</v>
       </c>
       <c r="F12" t="n">
         <v>0.024</v>
       </c>
       <c r="G12" t="n">
-        <v>18.776</v>
+        <v>19.625</v>
       </c>
       <c r="H12" t="n">
-        <v>79.622</v>
+        <v>71.551</v>
       </c>
       <c r="I12" t="n">
         <v>192.501</v>
@@ -1028,10 +1030,10 @@
         <v>100</v>
       </c>
       <c r="M12" t="n">
-        <v>83.616</v>
+        <v>89.106</v>
       </c>
       <c r="N12" t="n">
-        <v>12.877</v>
+        <v>13.722</v>
       </c>
       <c r="O12" t="s">
         <v>23</v>
@@ -1045,22 +1047,22 @@
         <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>1.788</v>
+        <v>2.102</v>
       </c>
       <c r="D13" t="n">
-        <v>0.129</v>
+        <v>0.123</v>
       </c>
       <c r="E13" t="n">
-        <v>1.917</v>
+        <v>2.225</v>
       </c>
       <c r="F13" t="n">
         <v>0.009</v>
       </c>
       <c r="G13" t="n">
-        <v>21.848</v>
+        <v>20.836</v>
       </c>
       <c r="H13" t="n">
-        <v>34.237</v>
+        <v>43.856</v>
       </c>
       <c r="I13" t="n">
         <v>2356.999</v>
@@ -1075,10 +1077,10 @@
         <v>100</v>
       </c>
       <c r="M13" t="n">
-        <v>103.436</v>
+        <v>96.894</v>
       </c>
       <c r="N13" t="n">
-        <v>195.039</v>
+        <v>182.702</v>
       </c>
       <c r="O13" t="s">
         <v>23</v>
@@ -1092,22 +1094,22 @@
         <v>16</v>
       </c>
       <c r="C14" t="n">
-        <v>2.933</v>
+        <v>3.174</v>
       </c>
       <c r="D14" t="n">
-        <v>0.107</v>
+        <v>0.103</v>
       </c>
       <c r="E14" t="n">
-        <v>3.04</v>
+        <v>3.276</v>
       </c>
       <c r="F14" t="n">
         <v>0.013</v>
       </c>
       <c r="G14" t="n">
-        <v>18.151</v>
+        <v>17.374</v>
       </c>
       <c r="H14" t="n">
-        <v>70.433</v>
+        <v>77.82</v>
       </c>
       <c r="I14" t="n">
         <v>528.293</v>
@@ -1122,10 +1124,10 @@
         <v>100</v>
       </c>
       <c r="M14" t="n">
-        <v>79.537</v>
+        <v>74.513</v>
       </c>
       <c r="N14" t="n">
-        <v>33.615</v>
+        <v>31.492</v>
       </c>
       <c r="O14" t="s">
         <v>23</v>
@@ -1139,13 +1141,13 @@
         <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>1.636</v>
+        <v>1.453</v>
       </c>
       <c r="D15" t="n">
-        <v>0.701</v>
+        <v>0.734</v>
       </c>
       <c r="E15" t="n">
-        <v>2.337</v>
+        <v>2.187</v>
       </c>
       <c r="F15" t="n">
         <v>0.051</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>78.937</v>
+        <v>74.741</v>
       </c>
       <c r="I15" t="n">
         <v>7301.987</v>
@@ -1169,10 +1171,10 @@
         <v>100</v>
       </c>
       <c r="M15" t="n">
-        <v>28.281</v>
+        <v>36.533</v>
       </c>
       <c r="N15" t="n">
-        <v>206.507</v>
+        <v>266.766</v>
       </c>
       <c r="O15" t="s">
         <v>17</v>
@@ -1186,13 +1188,13 @@
         <v>31</v>
       </c>
       <c r="C16" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D16" t="n">
-        <v>0.971</v>
+        <v>0.984</v>
       </c>
       <c r="E16" t="n">
-        <v>1.109</v>
+        <v>1.05</v>
       </c>
       <c r="F16" t="n">
         <v>0.053</v>
@@ -1201,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>45.215</v>
+        <v>43.538</v>
       </c>
       <c r="I16" t="n">
         <v>2895.335</v>
@@ -1216,10 +1218,10 @@
         <v>100</v>
       </c>
       <c r="M16" t="n">
-        <v>48.341</v>
+        <v>48.998</v>
       </c>
       <c r="N16" t="n">
-        <v>139.964</v>
+        <v>141.865</v>
       </c>
       <c r="O16" t="s">
         <v>17</v>
@@ -1233,13 +1235,13 @@
         <v>31</v>
       </c>
       <c r="C17" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D17" t="n">
-        <v>0.971</v>
+        <v>0.984</v>
       </c>
       <c r="E17" t="n">
-        <v>1.109</v>
+        <v>1.05</v>
       </c>
       <c r="F17" t="n">
         <v>0.053</v>
@@ -1248,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>45.215</v>
+        <v>43.538</v>
       </c>
       <c r="I17" t="n">
         <v>3580.539</v>
@@ -1263,10 +1265,10 @@
         <v>100</v>
       </c>
       <c r="M17" t="n">
-        <v>48.341</v>
+        <v>48.998</v>
       </c>
       <c r="N17" t="n">
-        <v>173.088</v>
+        <v>175.438</v>
       </c>
       <c r="O17" t="s">
         <v>17</v>
@@ -1280,13 +1282,13 @@
         <v>31</v>
       </c>
       <c r="C18" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D18" t="n">
-        <v>0.971</v>
+        <v>0.984</v>
       </c>
       <c r="E18" t="n">
-        <v>1.109</v>
+        <v>1.05</v>
       </c>
       <c r="F18" t="n">
         <v>0.053</v>
@@ -1295,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>45.215</v>
+        <v>43.538</v>
       </c>
       <c r="I18" t="n">
         <v>1101.603</v>
@@ -1310,10 +1312,10 @@
         <v>100</v>
       </c>
       <c r="M18" t="n">
-        <v>48.341</v>
+        <v>48.998</v>
       </c>
       <c r="N18" t="n">
-        <v>53.253</v>
+        <v>53.976</v>
       </c>
       <c r="O18" t="s">
         <v>17</v>
@@ -1327,13 +1329,13 @@
         <v>31</v>
       </c>
       <c r="C19" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D19" t="n">
-        <v>0.971</v>
+        <v>0.984</v>
       </c>
       <c r="E19" t="n">
-        <v>1.109</v>
+        <v>1.05</v>
       </c>
       <c r="F19" t="n">
         <v>0.053</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>45.215</v>
+        <v>43.538</v>
       </c>
       <c r="I19" t="n">
         <v>694.594</v>
@@ -1357,10 +1359,10 @@
         <v>100</v>
       </c>
       <c r="M19" t="n">
-        <v>48.341</v>
+        <v>48.998</v>
       </c>
       <c r="N19" t="n">
-        <v>33.578</v>
+        <v>34.034</v>
       </c>
       <c r="O19" t="s">
         <v>17</v>
@@ -1374,13 +1376,13 @@
         <v>31</v>
       </c>
       <c r="C20" t="n">
-        <v>2.1</v>
+        <v>2.117</v>
       </c>
       <c r="D20" t="n">
-        <v>1.088</v>
+        <v>1.084</v>
       </c>
       <c r="E20" t="n">
-        <v>3.188</v>
+        <v>3.201</v>
       </c>
       <c r="F20" t="n">
         <v>0.053</v>
@@ -1389,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>103.268</v>
+        <v>103.633</v>
       </c>
       <c r="I20" t="n">
         <v>4489.55</v>
@@ -1404,10 +1406,10 @@
         <v>100</v>
       </c>
       <c r="M20" t="n">
-        <v>54.177</v>
+        <v>54.392</v>
       </c>
       <c r="N20" t="n">
-        <v>243.231</v>
+        <v>244.196</v>
       </c>
       <c r="O20" t="s">
         <v>23</v>
@@ -1421,13 +1423,13 @@
         <v>31</v>
       </c>
       <c r="C21" t="n">
-        <v>1.659</v>
+        <v>1.688</v>
       </c>
       <c r="D21" t="n">
-        <v>1.194</v>
+        <v>1.187</v>
       </c>
       <c r="E21" t="n">
-        <v>2.852</v>
+        <v>2.875</v>
       </c>
       <c r="F21" t="n">
         <v>0.051</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>93.319</v>
+        <v>93.94</v>
       </c>
       <c r="I21" t="n">
         <v>3414.587</v>
@@ -1451,10 +1453,10 @@
         <v>100</v>
       </c>
       <c r="M21" t="n">
-        <v>59.411</v>
+        <v>59.065</v>
       </c>
       <c r="N21" t="n">
-        <v>202.863</v>
+        <v>201.682</v>
       </c>
       <c r="O21" t="s">
         <v>23</v>
@@ -1468,13 +1470,13 @@
         <v>31</v>
       </c>
       <c r="C22" t="n">
-        <v>1.176</v>
+        <v>1.139</v>
       </c>
       <c r="D22" t="n">
-        <v>1.309</v>
+        <v>1.318</v>
       </c>
       <c r="E22" t="n">
-        <v>2.485</v>
+        <v>2.456</v>
       </c>
       <c r="F22" t="n">
         <v>0.049</v>
@@ -1483,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>82.463</v>
+        <v>81.672</v>
       </c>
       <c r="I22" t="n">
         <v>1038.461</v>
@@ -1498,10 +1500,10 @@
         <v>100</v>
       </c>
       <c r="M22" t="n">
-        <v>65.15</v>
+        <v>65.591</v>
       </c>
       <c r="N22" t="n">
-        <v>67.656</v>
+        <v>68.113</v>
       </c>
       <c r="O22" t="s">
         <v>23</v>
@@ -1515,13 +1517,13 @@
         <v>31</v>
       </c>
       <c r="C23" t="n">
-        <v>2.065</v>
+        <v>2.382</v>
       </c>
       <c r="D23" t="n">
-        <v>1.027</v>
+        <v>0.951</v>
       </c>
       <c r="E23" t="n">
-        <v>3.092</v>
+        <v>3.333</v>
       </c>
       <c r="F23" t="n">
         <v>0.055</v>
@@ -1530,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>101.132</v>
+        <v>107.878</v>
       </c>
       <c r="I23" t="n">
         <v>2714.889</v>
@@ -1545,9 +1547,11 @@
         <v>100</v>
       </c>
       <c r="M23" t="n">
-        <v>51.1</v>
-      </c>
-      <c r="N23"/>
+        <v>47.341</v>
+      </c>
+      <c r="N23" t="n">
+        <v>124.091</v>
+      </c>
       <c r="O23" t="s">
         <v>23</v>
       </c>
@@ -1560,13 +1564,13 @@
         <v>31</v>
       </c>
       <c r="C24" t="n">
-        <v>2.607</v>
+        <v>2.338</v>
       </c>
       <c r="D24" t="n">
-        <v>0.897</v>
+        <v>0.961</v>
       </c>
       <c r="E24" t="n">
-        <v>3.504</v>
+        <v>3.3</v>
       </c>
       <c r="F24" t="n">
         <v>0.053</v>
@@ -1575,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.167</v>
+        <v>106.442</v>
       </c>
       <c r="I24" t="n">
         <v>974.173</v>
@@ -1590,10 +1594,10 @@
         <v>100</v>
       </c>
       <c r="M24" t="n">
-        <v>44.664</v>
+        <v>47.854</v>
       </c>
       <c r="N24" t="n">
-        <v>43.51</v>
+        <v>46.618</v>
       </c>
       <c r="O24" t="s">
         <v>23</v>
@@ -1607,13 +1611,13 @@
         <v>31</v>
       </c>
       <c r="C25" t="n">
-        <v>3.049</v>
+        <v>2.775</v>
       </c>
       <c r="D25" t="n">
-        <v>0.792</v>
+        <v>0.857</v>
       </c>
       <c r="E25" t="n">
-        <v>3.841</v>
+        <v>3.632</v>
       </c>
       <c r="F25" t="n">
         <v>0.061</v>
@@ -1622,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>123.824</v>
+        <v>117.994</v>
       </c>
       <c r="I25" t="n">
         <v>192.501</v>
@@ -1637,10 +1641,10 @@
         <v>100</v>
       </c>
       <c r="M25" t="n">
-        <v>39.415</v>
+        <v>42.663</v>
       </c>
       <c r="N25" t="n">
-        <v>7.587</v>
+        <v>8.213</v>
       </c>
       <c r="O25" t="s">
         <v>23</v>
@@ -1654,13 +1658,13 @@
         <v>31</v>
       </c>
       <c r="C26" t="n">
-        <v>1.618</v>
+        <v>1.944</v>
       </c>
       <c r="D26" t="n">
-        <v>1.06</v>
+        <v>0.982</v>
       </c>
       <c r="E26" t="n">
-        <v>2.677</v>
+        <v>2.925</v>
       </c>
       <c r="F26" t="n">
         <v>0.038</v>
@@ -1669,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>84.933</v>
+        <v>91.88</v>
       </c>
       <c r="I26" t="n">
         <v>2356.999</v>
@@ -1684,10 +1688,10 @@
         <v>100</v>
       </c>
       <c r="M26" t="n">
-        <v>52.74</v>
+        <v>48.869</v>
       </c>
       <c r="N26" t="n">
-        <v>124.309</v>
+        <v>115.185</v>
       </c>
       <c r="O26" t="s">
         <v>23</v>
@@ -1701,13 +1705,13 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>2.808</v>
+        <v>3.058</v>
       </c>
       <c r="D27" t="n">
-        <v>0.775</v>
+        <v>0.716</v>
       </c>
       <c r="E27" t="n">
-        <v>3.584</v>
+        <v>3.774</v>
       </c>
       <c r="F27" t="n">
         <v>0.042</v>
@@ -1716,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>111.371</v>
+        <v>116.706</v>
       </c>
       <c r="I27" t="n">
         <v>528.293</v>
@@ -1731,10 +1735,10 @@
         <v>100</v>
       </c>
       <c r="M27" t="n">
-        <v>38.6</v>
+        <v>35.627</v>
       </c>
       <c r="N27" t="n">
-        <v>20.392</v>
+        <v>18.822</v>
       </c>
       <c r="O27" t="s">
         <v>23</v>
@@ -1748,13 +1752,13 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.491</v>
+        <v>0.436</v>
       </c>
       <c r="D28" t="n">
-        <v>0.584</v>
+        <v>0.612</v>
       </c>
       <c r="E28" t="n">
-        <v>1.075</v>
+        <v>1.048</v>
       </c>
       <c r="F28" t="n">
         <v>0.049</v>
@@ -1763,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>43.161</v>
+        <v>42.395</v>
       </c>
       <c r="I28" t="n">
         <v>7301.987</v>
@@ -1778,10 +1782,10 @@
         <v>100</v>
       </c>
       <c r="M28" t="n">
-        <v>64.057</v>
+        <v>68.88</v>
       </c>
       <c r="N28" t="n">
-        <v>438.844</v>
+        <v>471.886</v>
       </c>
       <c r="O28" t="s">
         <v>17</v>
@@ -1795,13 +1799,13 @@
         <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>0.63</v>
+        <v>0.635</v>
       </c>
       <c r="D29" t="n">
-        <v>0.907</v>
+        <v>0.904</v>
       </c>
       <c r="E29" t="n">
-        <v>1.537</v>
+        <v>1.539</v>
       </c>
       <c r="F29" t="n">
         <v>0.046</v>
@@ -1810,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>55.199</v>
+        <v>55.247</v>
       </c>
       <c r="I29" t="n">
         <v>4489.55</v>
@@ -1825,10 +1829,10 @@
         <v>100</v>
       </c>
       <c r="M29" t="n">
-        <v>102.246</v>
+        <v>102.778</v>
       </c>
       <c r="N29" t="n">
-        <v>447.565</v>
+        <v>449.89</v>
       </c>
       <c r="O29" t="s">
         <v>23</v>
@@ -1842,13 +1846,13 @@
         <v>32</v>
       </c>
       <c r="C30" t="n">
-        <v>0.498</v>
+        <v>0.506</v>
       </c>
       <c r="D30" t="n">
-        <v>0.995</v>
+        <v>0.989</v>
       </c>
       <c r="E30" t="n">
-        <v>1.492</v>
+        <v>1.495</v>
       </c>
       <c r="F30" t="n">
         <v>0.045</v>
@@ -1857,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>53.745</v>
+        <v>53.828</v>
       </c>
       <c r="I30" t="n">
         <v>3414.587</v>
@@ -1872,10 +1876,10 @@
         <v>100</v>
       </c>
       <c r="M30" t="n">
-        <v>98.985</v>
+        <v>99.177</v>
       </c>
       <c r="N30" t="n">
-        <v>329.542</v>
+        <v>330.182</v>
       </c>
       <c r="O30" t="s">
         <v>23</v>
@@ -1889,13 +1893,13 @@
         <v>32</v>
       </c>
       <c r="C31" t="n">
-        <v>0.353</v>
+        <v>0.342</v>
       </c>
       <c r="D31" t="n">
-        <v>1.091</v>
+        <v>1.098</v>
       </c>
       <c r="E31" t="n">
-        <v>1.443</v>
+        <v>1.44</v>
       </c>
       <c r="F31" t="n">
         <v>0.044</v>
@@ -1904,7 +1908,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>52.171</v>
+        <v>52.066</v>
       </c>
       <c r="I31" t="n">
         <v>1038.461</v>
@@ -1919,10 +1923,10 @@
         <v>100</v>
       </c>
       <c r="M31" t="n">
-        <v>95.442</v>
+        <v>95.196</v>
       </c>
       <c r="N31" t="n">
-        <v>96.635</v>
+        <v>96.386</v>
       </c>
       <c r="O31" t="s">
         <v>23</v>
@@ -1936,13 +1940,13 @@
         <v>32</v>
       </c>
       <c r="C32" t="n">
-        <v>0.62</v>
+        <v>0.714</v>
       </c>
       <c r="D32" t="n">
-        <v>0.855</v>
+        <v>0.793</v>
       </c>
       <c r="E32" t="n">
-        <v>1.475</v>
+        <v>1.507</v>
       </c>
       <c r="F32" t="n">
         <v>0.048</v>
@@ -1951,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>54.131</v>
+        <v>55.027</v>
       </c>
       <c r="I32" t="n">
         <v>2714.889</v>
@@ -1966,9 +1970,11 @@
         <v>100</v>
       </c>
       <c r="M32" t="n">
-        <v>98.101</v>
-      </c>
-      <c r="N32"/>
+        <v>100.192</v>
+      </c>
+      <c r="N32" t="n">
+        <v>256.321</v>
+      </c>
       <c r="O32" t="s">
         <v>23</v>
       </c>
@@ -1981,13 +1987,13 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.782</v>
+        <v>0.702</v>
       </c>
       <c r="D33" t="n">
-        <v>0.748</v>
+        <v>0.801</v>
       </c>
       <c r="E33" t="n">
-        <v>1.53</v>
+        <v>1.503</v>
       </c>
       <c r="F33" t="n">
         <v>0.048</v>
@@ -1996,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>55.475</v>
+        <v>54.714</v>
       </c>
       <c r="I33" t="n">
         <v>974.173</v>
@@ -2011,10 +2017,10 @@
         <v>100</v>
       </c>
       <c r="M33" t="n">
-        <v>101.356</v>
+        <v>99.582</v>
       </c>
       <c r="N33" t="n">
-        <v>96.369</v>
+        <v>94.682</v>
       </c>
       <c r="O33" t="s">
         <v>23</v>
@@ -2028,13 +2034,13 @@
         <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>0.915</v>
+        <v>0.833</v>
       </c>
       <c r="D34" t="n">
-        <v>0.66</v>
+        <v>0.714</v>
       </c>
       <c r="E34" t="n">
-        <v>1.575</v>
+        <v>1.547</v>
       </c>
       <c r="F34" t="n">
         <v>0.051</v>
@@ -2043,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.554</v>
+        <v>56.779</v>
       </c>
       <c r="I34" t="n">
         <v>192.501</v>
@@ -2058,10 +2064,10 @@
         <v>100</v>
       </c>
       <c r="M34" t="n">
-        <v>105.685</v>
+        <v>103.878</v>
       </c>
       <c r="N34" t="n">
-        <v>19.856</v>
+        <v>19.517</v>
       </c>
       <c r="O34" t="s">
         <v>23</v>
@@ -2075,13 +2081,13 @@
         <v>32</v>
       </c>
       <c r="C35" t="n">
-        <v>0.485</v>
+        <v>0.583</v>
       </c>
       <c r="D35" t="n">
-        <v>0.883</v>
+        <v>0.818</v>
       </c>
       <c r="E35" t="n">
-        <v>1.368</v>
+        <v>1.401</v>
       </c>
       <c r="F35" t="n">
         <v>0.035</v>
@@ -2090,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>47.674</v>
+        <v>48.597</v>
       </c>
       <c r="I35" t="n">
         <v>2356.999</v>
@@ -2105,10 +2111,10 @@
         <v>100</v>
       </c>
       <c r="M35" t="n">
-        <v>89.999</v>
+        <v>92.153</v>
       </c>
       <c r="N35" t="n">
-        <v>209.158</v>
+        <v>214.163</v>
       </c>
       <c r="O35" t="s">
         <v>23</v>
@@ -2122,13 +2128,13 @@
         <v>32</v>
       </c>
       <c r="C36" t="n">
-        <v>0.842</v>
+        <v>0.918</v>
       </c>
       <c r="D36" t="n">
-        <v>0.646</v>
+        <v>0.596</v>
       </c>
       <c r="E36" t="n">
-        <v>1.489</v>
+        <v>1.514</v>
       </c>
       <c r="F36" t="n">
         <v>0.037</v>
@@ -2137,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>51.438</v>
+        <v>52.146</v>
       </c>
       <c r="I36" t="n">
         <v>528.293</v>
@@ -2152,10 +2158,10 @@
         <v>100</v>
       </c>
       <c r="M36" t="n">
-        <v>98.533</v>
+        <v>100.187</v>
       </c>
       <c r="N36" t="n">
-        <v>51.326</v>
+        <v>52.187</v>
       </c>
       <c r="O36" t="s">
         <v>23</v>
@@ -2169,13 +2175,13 @@
         <v>33</v>
       </c>
       <c r="C37" t="n">
-        <v>1.163</v>
+        <v>1.453</v>
       </c>
       <c r="D37" t="n">
-        <v>2.184</v>
+        <v>2.039</v>
       </c>
       <c r="E37" t="n">
-        <v>3.347</v>
+        <v>3.492</v>
       </c>
       <c r="F37" t="n">
         <v>0.051</v>
@@ -2184,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>107.218</v>
+        <v>111.275</v>
       </c>
       <c r="I37" t="n">
         <v>7301.987</v>
@@ -2210,13 +2216,13 @@
         <v>33</v>
       </c>
       <c r="C38" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D38" t="n">
-        <v>2.698</v>
+        <v>2.734</v>
       </c>
       <c r="E38" t="n">
-        <v>2.836</v>
+        <v>2.799</v>
       </c>
       <c r="F38" t="n">
         <v>0.053</v>
@@ -2225,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>93.556</v>
+        <v>92.536</v>
       </c>
       <c r="I38" t="n">
         <v>2895.335</v>
@@ -2251,13 +2257,13 @@
         <v>33</v>
       </c>
       <c r="C39" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D39" t="n">
-        <v>2.698</v>
+        <v>2.734</v>
       </c>
       <c r="E39" t="n">
-        <v>2.836</v>
+        <v>2.799</v>
       </c>
       <c r="F39" t="n">
         <v>0.053</v>
@@ -2266,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>93.556</v>
+        <v>92.536</v>
       </c>
       <c r="I39" t="n">
         <v>3580.539</v>
@@ -2292,13 +2298,13 @@
         <v>33</v>
       </c>
       <c r="C40" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D40" t="n">
-        <v>2.698</v>
+        <v>2.734</v>
       </c>
       <c r="E40" t="n">
-        <v>2.836</v>
+        <v>2.799</v>
       </c>
       <c r="F40" t="n">
         <v>0.053</v>
@@ -2307,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>93.556</v>
+        <v>92.536</v>
       </c>
       <c r="I40" t="n">
         <v>1101.603</v>
@@ -2333,13 +2339,13 @@
         <v>33</v>
       </c>
       <c r="C41" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D41" t="n">
-        <v>2.698</v>
+        <v>2.734</v>
       </c>
       <c r="E41" t="n">
-        <v>2.836</v>
+        <v>2.799</v>
       </c>
       <c r="F41" t="n">
         <v>0.053</v>
@@ -2348,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>93.556</v>
+        <v>92.536</v>
       </c>
       <c r="I41" t="n">
         <v>694.594</v>
@@ -2374,13 +2380,13 @@
         <v>33</v>
       </c>
       <c r="C42" t="n">
-        <v>2.1</v>
+        <v>2.161</v>
       </c>
       <c r="D42" t="n">
-        <v>3.023</v>
+        <v>2.983</v>
       </c>
       <c r="E42" t="n">
-        <v>5.123</v>
+        <v>5.143</v>
       </c>
       <c r="F42" t="n">
         <v>0.053</v>
@@ -2389,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>157.445</v>
+        <v>158.025</v>
       </c>
       <c r="I42" t="n">
         <v>4489.55</v>
@@ -2415,13 +2421,13 @@
         <v>33</v>
       </c>
       <c r="C43" t="n">
-        <v>1.659</v>
+        <v>1.688</v>
       </c>
       <c r="D43" t="n">
-        <v>3.315</v>
+        <v>3.296</v>
       </c>
       <c r="E43" t="n">
-        <v>4.974</v>
+        <v>4.984</v>
       </c>
       <c r="F43" t="n">
         <v>0.051</v>
@@ -2430,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>152.73</v>
+        <v>153.005</v>
       </c>
       <c r="I43" t="n">
         <v>3414.587</v>
@@ -2456,13 +2462,13 @@
         <v>33</v>
       </c>
       <c r="C44" t="n">
-        <v>1.176</v>
+        <v>1.139</v>
       </c>
       <c r="D44" t="n">
-        <v>3.636</v>
+        <v>3.66</v>
       </c>
       <c r="E44" t="n">
-        <v>4.811</v>
+        <v>4.799</v>
       </c>
       <c r="F44" t="n">
         <v>0.049</v>
@@ -2471,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>147.613</v>
+        <v>147.262</v>
       </c>
       <c r="I44" t="n">
         <v>1038.461</v>
@@ -2497,13 +2503,13 @@
         <v>33</v>
       </c>
       <c r="C45" t="n">
-        <v>2.065</v>
+        <v>2.382</v>
       </c>
       <c r="D45" t="n">
-        <v>2.852</v>
+        <v>2.642</v>
       </c>
       <c r="E45" t="n">
-        <v>4.917</v>
+        <v>5.023</v>
       </c>
       <c r="F45" t="n">
         <v>0.055</v>
@@ -2512,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>152.232</v>
+        <v>155.219</v>
       </c>
       <c r="I45" t="n">
         <v>2714.889</v>
@@ -2538,13 +2544,13 @@
         <v>33</v>
       </c>
       <c r="C46" t="n">
-        <v>2.607</v>
+        <v>2.338</v>
       </c>
       <c r="D46" t="n">
-        <v>2.492</v>
+        <v>2.67</v>
       </c>
       <c r="E46" t="n">
-        <v>5.099</v>
+        <v>5.009</v>
       </c>
       <c r="F46" t="n">
         <v>0.053</v>
@@ -2553,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.831</v>
+        <v>154.296</v>
       </c>
       <c r="I46" t="n">
         <v>974.173</v>
@@ -2579,13 +2585,13 @@
         <v>33</v>
       </c>
       <c r="C47" t="n">
-        <v>3.049</v>
+        <v>2.775</v>
       </c>
       <c r="D47" t="n">
-        <v>2.199</v>
+        <v>2.381</v>
       </c>
       <c r="E47" t="n">
-        <v>5.248</v>
+        <v>5.156</v>
       </c>
       <c r="F47" t="n">
         <v>0.061</v>
@@ -2594,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>163.239</v>
+        <v>160.657</v>
       </c>
       <c r="I47" t="n">
         <v>192.501</v>
@@ -2620,13 +2626,13 @@
         <v>33</v>
       </c>
       <c r="C48" t="n">
-        <v>1.618</v>
+        <v>1.944</v>
       </c>
       <c r="D48" t="n">
-        <v>2.943</v>
+        <v>2.727</v>
       </c>
       <c r="E48" t="n">
-        <v>4.561</v>
+        <v>4.671</v>
       </c>
       <c r="F48" t="n">
         <v>0.038</v>
@@ -2635,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>137.673</v>
+        <v>140.75</v>
       </c>
       <c r="I48" t="n">
         <v>2356.999</v>
@@ -2661,13 +2667,13 @@
         <v>33</v>
       </c>
       <c r="C49" t="n">
-        <v>2.808</v>
+        <v>3.058</v>
       </c>
       <c r="D49" t="n">
-        <v>2.154</v>
+        <v>1.988</v>
       </c>
       <c r="E49" t="n">
-        <v>4.962</v>
+        <v>5.047</v>
       </c>
       <c r="F49" t="n">
         <v>0.042</v>
@@ -2676,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>149.971</v>
+        <v>152.333</v>
       </c>
       <c r="I49" t="n">
         <v>528.293</v>
@@ -2702,13 +2708,13 @@
         <v>34</v>
       </c>
       <c r="C50" t="n">
-        <v>1.761</v>
+        <v>1.776</v>
       </c>
       <c r="D50" t="n">
-        <v>3.247</v>
+        <v>3.237</v>
       </c>
       <c r="E50" t="n">
-        <v>5.009</v>
+        <v>5.014</v>
       </c>
       <c r="F50" t="n">
         <v>0.045</v>
@@ -2717,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>153.464</v>
+        <v>153.605</v>
       </c>
       <c r="I50" t="n">
         <v>4489.55</v>
@@ -2732,10 +2738,10 @@
         <v>100</v>
       </c>
       <c r="M50" t="n">
-        <v>3.981</v>
+        <v>4.42</v>
       </c>
       <c r="N50" t="n">
-        <v>16.962</v>
+        <v>18.832</v>
       </c>
       <c r="O50" t="s">
         <v>23</v>
@@ -2749,13 +2755,13 @@
         <v>34</v>
       </c>
       <c r="C51" t="n">
-        <v>1.381</v>
+        <v>1.406</v>
       </c>
       <c r="D51" t="n">
-        <v>3.5</v>
+        <v>3.483</v>
       </c>
       <c r="E51" t="n">
-        <v>4.881</v>
+        <v>4.889</v>
       </c>
       <c r="F51" t="n">
         <v>0.044</v>
@@ -2764,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>149.733</v>
+        <v>149.968</v>
       </c>
       <c r="I51" t="n">
         <v>3414.587</v>
@@ -2779,10 +2785,10 @@
         <v>100</v>
       </c>
       <c r="M51" t="n">
-        <v>2.997</v>
+        <v>3.036</v>
       </c>
       <c r="N51" t="n">
-        <v>9.711</v>
+        <v>9.839</v>
       </c>
       <c r="O51" t="s">
         <v>23</v>
@@ -2796,13 +2802,13 @@
         <v>34</v>
       </c>
       <c r="C52" t="n">
-        <v>0.971</v>
+        <v>0.94</v>
       </c>
       <c r="D52" t="n">
-        <v>3.771</v>
+        <v>3.792</v>
       </c>
       <c r="E52" t="n">
-        <v>4.742</v>
+        <v>4.732</v>
       </c>
       <c r="F52" t="n">
         <v>0.044</v>
@@ -2811,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>145.723</v>
+        <v>145.428</v>
       </c>
       <c r="I52" t="n">
         <v>1038.461</v>
@@ -2826,10 +2832,10 @@
         <v>100</v>
       </c>
       <c r="M52" t="n">
-        <v>1.89</v>
+        <v>1.834</v>
       </c>
       <c r="N52" t="n">
-        <v>1.862</v>
+        <v>1.808</v>
       </c>
       <c r="O52" t="s">
         <v>23</v>
@@ -2843,13 +2849,13 @@
         <v>34</v>
       </c>
       <c r="C53" t="n">
-        <v>1.735</v>
+        <v>2.013</v>
       </c>
       <c r="D53" t="n">
-        <v>3.071</v>
+        <v>2.886</v>
       </c>
       <c r="E53" t="n">
-        <v>4.805</v>
+        <v>4.899</v>
       </c>
       <c r="F53" t="n">
         <v>0.047</v>
@@ -2858,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>148.848</v>
+        <v>151.476</v>
       </c>
       <c r="I53" t="n">
         <v>2714.889</v>
@@ -2873,9 +2879,11 @@
         <v>100</v>
       </c>
       <c r="M53" t="n">
-        <v>3.384</v>
-      </c>
-      <c r="N53"/>
+        <v>3.744</v>
+      </c>
+      <c r="N53" t="n">
+        <v>8.812</v>
+      </c>
       <c r="O53" t="s">
         <v>23</v>
       </c>
@@ -2888,13 +2896,13 @@
         <v>34</v>
       </c>
       <c r="C54" t="n">
-        <v>2.214</v>
+        <v>1.975</v>
       </c>
       <c r="D54" t="n">
-        <v>2.753</v>
+        <v>2.911</v>
       </c>
       <c r="E54" t="n">
-        <v>4.967</v>
+        <v>4.886</v>
       </c>
       <c r="F54" t="n">
         <v>0.047</v>
@@ -2903,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>153.243</v>
+        <v>150.986</v>
       </c>
       <c r="I54" t="n">
         <v>974.173</v>
@@ -2918,10 +2926,10 @@
         <v>100</v>
       </c>
       <c r="M54" t="n">
-        <v>3.588</v>
+        <v>3.31</v>
       </c>
       <c r="N54" t="n">
-        <v>3.139</v>
+        <v>2.895</v>
       </c>
       <c r="O54" t="s">
         <v>23</v>
@@ -2935,13 +2943,13 @@
         <v>34</v>
       </c>
       <c r="C55" t="n">
-        <v>2.614</v>
+        <v>2.365</v>
       </c>
       <c r="D55" t="n">
-        <v>2.487</v>
+        <v>2.653</v>
       </c>
       <c r="E55" t="n">
-        <v>5.102</v>
+        <v>5.018</v>
       </c>
       <c r="F55" t="n">
         <v>0.049</v>
@@ -2950,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>157.583</v>
+        <v>155.233</v>
       </c>
       <c r="I55" t="n">
         <v>192.501</v>
@@ -2965,10 +2973,10 @@
         <v>100</v>
       </c>
       <c r="M55" t="n">
-        <v>5.656</v>
+        <v>5.425</v>
       </c>
       <c r="N55" t="n">
-        <v>0.978</v>
+        <v>0.938</v>
       </c>
       <c r="O55" t="s">
         <v>23</v>
@@ -2982,13 +2990,13 @@
         <v>34</v>
       </c>
       <c r="C56" t="n">
-        <v>1.349</v>
+        <v>1.632</v>
       </c>
       <c r="D56" t="n">
-        <v>3.121</v>
+        <v>2.934</v>
       </c>
       <c r="E56" t="n">
-        <v>4.47</v>
+        <v>4.566</v>
       </c>
       <c r="F56" t="n">
         <v>0.035</v>
@@ -2997,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>135.718</v>
+        <v>138.383</v>
       </c>
       <c r="I56" t="n">
         <v>2356.999</v>
@@ -3012,10 +3020,10 @@
         <v>100</v>
       </c>
       <c r="M56" t="n">
-        <v>1.955</v>
+        <v>2.366</v>
       </c>
       <c r="N56" t="n">
-        <v>4.405</v>
+        <v>5.332</v>
       </c>
       <c r="O56" t="s">
         <v>23</v>
@@ -3029,13 +3037,13 @@
         <v>34</v>
       </c>
       <c r="C57" t="n">
-        <v>2.403</v>
+        <v>2.633</v>
       </c>
       <c r="D57" t="n">
-        <v>2.423</v>
+        <v>2.27</v>
       </c>
       <c r="E57" t="n">
-        <v>4.825</v>
+        <v>4.903</v>
       </c>
       <c r="F57" t="n">
         <v>0.036</v>
@@ -3044,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>145.925</v>
+        <v>148.097</v>
       </c>
       <c r="I57" t="n">
         <v>528.293</v>
@@ -3059,10 +3067,10 @@
         <v>100</v>
       </c>
       <c r="M57" t="n">
-        <v>4.046</v>
+        <v>4.237</v>
       </c>
       <c r="N57" t="n">
-        <v>2.043</v>
+        <v>2.14</v>
       </c>
       <c r="O57" t="s">
         <v>23</v>
@@ -3076,22 +3084,22 @@
         <v>35</v>
       </c>
       <c r="C58" t="n">
-        <v>1.915</v>
+        <v>1.929</v>
       </c>
       <c r="D58" t="n">
         <v>0.142</v>
       </c>
       <c r="E58" t="n">
-        <v>2.057</v>
+        <v>2.071</v>
       </c>
       <c r="F58" t="n">
         <v>0.009</v>
       </c>
       <c r="G58" t="n">
-        <v>24.075</v>
+        <v>24.029</v>
       </c>
       <c r="H58" t="n">
-        <v>37.416</v>
+        <v>37.859</v>
       </c>
       <c r="I58" t="n">
         <v>4489.55</v>
@@ -3100,16 +3108,16 @@
         <v>351.981</v>
       </c>
       <c r="K58" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L58" t="n">
         <v>100</v>
       </c>
       <c r="M58" t="n">
-        <v>120.029</v>
+        <v>120.165</v>
       </c>
       <c r="N58" t="n">
-        <v>431.101</v>
+        <v>420.801</v>
       </c>
       <c r="O58" t="s">
         <v>23</v>
@@ -3123,22 +3131,22 @@
         <v>35</v>
       </c>
       <c r="C59" t="n">
-        <v>1.546</v>
+        <v>1.57</v>
       </c>
       <c r="D59" t="n">
         <v>0.149</v>
       </c>
       <c r="E59" t="n">
-        <v>1.695</v>
+        <v>1.719</v>
       </c>
       <c r="F59" t="n">
         <v>0.009</v>
       </c>
       <c r="G59" t="n">
-        <v>25.257</v>
+        <v>25.179</v>
       </c>
       <c r="H59" t="n">
-        <v>25.97</v>
+        <v>26.711</v>
       </c>
       <c r="I59" t="n">
         <v>3414.587</v>
@@ -3147,16 +3155,16 @@
         <v>267.704</v>
       </c>
       <c r="K59" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L59" t="n">
         <v>100</v>
       </c>
       <c r="M59" t="n">
-        <v>126.76</v>
+        <v>126.294</v>
       </c>
       <c r="N59" t="n">
-        <v>346.267</v>
+        <v>336.368</v>
       </c>
       <c r="O59" t="s">
         <v>23</v>
@@ -3170,22 +3178,22 @@
         <v>35</v>
       </c>
       <c r="C60" t="n">
-        <v>1.149</v>
+        <v>1.119</v>
       </c>
       <c r="D60" t="n">
         <v>0.157</v>
       </c>
       <c r="E60" t="n">
-        <v>1.306</v>
+        <v>1.276</v>
       </c>
       <c r="F60" t="n">
         <v>0.008</v>
       </c>
       <c r="G60" t="n">
-        <v>26.53</v>
+        <v>26.627</v>
       </c>
       <c r="H60" t="n">
-        <v>13.645</v>
+        <v>12.718</v>
       </c>
       <c r="I60" t="n">
         <v>1038.461</v>
@@ -3194,16 +3202,16 @@
         <v>81.415</v>
       </c>
       <c r="K60" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L60" t="n">
         <v>100</v>
       </c>
       <c r="M60" t="n">
-        <v>133.968</v>
+        <v>134.545</v>
       </c>
       <c r="N60" t="n">
-        <v>111.296</v>
+        <v>108.981</v>
       </c>
       <c r="O60" t="s">
         <v>23</v>
@@ -3217,22 +3225,22 @@
         <v>35</v>
       </c>
       <c r="C61" t="n">
-        <v>1.88</v>
+        <v>2.149</v>
       </c>
       <c r="D61" t="n">
-        <v>0.135</v>
+        <v>0.13</v>
       </c>
       <c r="E61" t="n">
-        <v>2.014</v>
+        <v>2.279</v>
       </c>
       <c r="F61" t="n">
         <v>0.01</v>
       </c>
       <c r="G61" t="n">
-        <v>22.857</v>
+        <v>21.993</v>
       </c>
       <c r="H61" t="n">
-        <v>37.92</v>
+        <v>46.192</v>
       </c>
       <c r="I61" t="n">
         <v>2714.889</v>
@@ -3241,15 +3249,17 @@
         <v>208.09</v>
       </c>
       <c r="K61" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L61" t="n">
         <v>100</v>
       </c>
       <c r="M61" t="n">
-        <v>114.312</v>
-      </c>
-      <c r="N61"/>
+        <v>109.027</v>
+      </c>
+      <c r="N61" t="n">
+        <v>222.91</v>
+      </c>
       <c r="O61" t="s">
         <v>23</v>
       </c>
@@ -3262,22 +3272,22 @@
         <v>35</v>
       </c>
       <c r="C62" t="n">
-        <v>2.344</v>
+        <v>2.112</v>
       </c>
       <c r="D62" t="n">
-        <v>0.126</v>
+        <v>0.131</v>
       </c>
       <c r="E62" t="n">
-        <v>2.47</v>
+        <v>2.243</v>
       </c>
       <c r="F62" t="n">
         <v>0.009</v>
       </c>
       <c r="G62" t="n">
-        <v>21.369</v>
+        <v>22.111</v>
       </c>
       <c r="H62" t="n">
-        <v>52.032</v>
+        <v>44.928</v>
       </c>
       <c r="I62" t="n">
         <v>974.173</v>
@@ -3286,16 +3296,16 @@
         <v>74.622</v>
       </c>
       <c r="K62" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L62" t="n">
         <v>100</v>
       </c>
       <c r="M62" t="n">
-        <v>104.8</v>
+        <v>109.368</v>
       </c>
       <c r="N62" t="n">
-        <v>81.674</v>
+        <v>83.104</v>
       </c>
       <c r="O62" t="s">
         <v>23</v>
@@ -3309,22 +3319,22 @@
         <v>35</v>
       </c>
       <c r="C63" t="n">
-        <v>2.732</v>
+        <v>2.491</v>
       </c>
       <c r="D63" t="n">
-        <v>0.119</v>
+        <v>0.123</v>
       </c>
       <c r="E63" t="n">
-        <v>2.851</v>
+        <v>2.614</v>
       </c>
       <c r="F63" t="n">
         <v>0.011</v>
       </c>
       <c r="G63" t="n">
-        <v>20.125</v>
+        <v>20.898</v>
       </c>
       <c r="H63" t="n">
-        <v>64.494</v>
+        <v>57.095</v>
       </c>
       <c r="I63" t="n">
         <v>192.501</v>
@@ -3333,16 +3343,16 @@
         <v>14.746</v>
       </c>
       <c r="K63" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L63" t="n">
         <v>100</v>
       </c>
       <c r="M63" t="n">
-        <v>98.745</v>
+        <v>103.563</v>
       </c>
       <c r="N63" t="n">
-        <v>15.207</v>
+        <v>15.55</v>
       </c>
       <c r="O63" t="s">
         <v>23</v>
@@ -3356,22 +3366,22 @@
         <v>35</v>
       </c>
       <c r="C64" t="n">
-        <v>1.497</v>
+        <v>1.77</v>
       </c>
       <c r="D64" t="n">
-        <v>0.134</v>
+        <v>0.129</v>
       </c>
       <c r="E64" t="n">
-        <v>1.631</v>
+        <v>1.899</v>
       </c>
       <c r="F64" t="n">
         <v>0.006</v>
       </c>
       <c r="G64" t="n">
-        <v>22.681</v>
+        <v>21.804</v>
       </c>
       <c r="H64" t="n">
-        <v>25.956</v>
+        <v>34.345</v>
       </c>
       <c r="I64" t="n">
         <v>2356.999</v>
@@ -3380,16 +3390,16 @@
         <v>172.297</v>
       </c>
       <c r="K64" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L64" t="n">
         <v>100</v>
       </c>
       <c r="M64" t="n">
-        <v>111.718</v>
+        <v>106.404</v>
       </c>
       <c r="N64" t="n">
-        <v>210.655</v>
+        <v>195.62</v>
       </c>
       <c r="O64" t="s">
         <v>23</v>
@@ -3403,22 +3413,22 @@
         <v>35</v>
       </c>
       <c r="C65" t="n">
-        <v>2.517</v>
+        <v>2.74</v>
       </c>
       <c r="D65" t="n">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="E65" t="n">
-        <v>2.632</v>
+        <v>2.85</v>
       </c>
       <c r="F65" t="n">
         <v>0.007</v>
       </c>
       <c r="G65" t="n">
-        <v>19.411</v>
+        <v>18.696</v>
       </c>
       <c r="H65" t="n">
-        <v>57.516</v>
+        <v>64.352</v>
       </c>
       <c r="I65" t="n">
         <v>528.293</v>
@@ -3427,16 +3437,16 @@
         <v>38.618</v>
       </c>
       <c r="K65" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L65" t="n">
         <v>100</v>
       </c>
       <c r="M65" t="n">
-        <v>92.455</v>
+        <v>87.981</v>
       </c>
       <c r="N65" t="n">
-        <v>39.074</v>
+        <v>36.254</v>
       </c>
       <c r="O65" t="s">
         <v>23</v>
@@ -3450,13 +3460,13 @@
         <v>36</v>
       </c>
       <c r="C66" t="n">
-        <v>1.636</v>
+        <v>1.453</v>
       </c>
       <c r="D66" t="n">
-        <v>0.584</v>
+        <v>0.612</v>
       </c>
       <c r="E66" t="n">
-        <v>2.22</v>
+        <v>2.065</v>
       </c>
       <c r="F66" t="n">
         <v>0.05</v>
@@ -3465,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>75.436</v>
+        <v>71.087</v>
       </c>
       <c r="I66" t="n">
         <v>7301.987</v>
@@ -3480,10 +3490,10 @@
         <v>100</v>
       </c>
       <c r="M66" t="n">
-        <v>31.781</v>
+        <v>40.188</v>
       </c>
       <c r="N66" t="n">
-        <v>232.066</v>
+        <v>293.449</v>
       </c>
       <c r="O66" t="s">
         <v>17</v>
@@ -3497,13 +3507,13 @@
         <v>36</v>
       </c>
       <c r="C67" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D67" t="n">
-        <v>0.809</v>
+        <v>0.82</v>
       </c>
       <c r="E67" t="n">
-        <v>0.948</v>
+        <v>0.885</v>
       </c>
       <c r="F67" t="n">
         <v>0.053</v>
@@ -3512,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>40.461</v>
+        <v>38.722</v>
       </c>
       <c r="I67" t="n">
         <v>2895.335</v>
@@ -3527,10 +3537,10 @@
         <v>100</v>
       </c>
       <c r="M67" t="n">
-        <v>53.096</v>
+        <v>53.814</v>
       </c>
       <c r="N67" t="n">
-        <v>153.73</v>
+        <v>155.809</v>
       </c>
       <c r="O67" t="s">
         <v>17</v>
@@ -3544,13 +3554,13 @@
         <v>36</v>
       </c>
       <c r="C68" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D68" t="n">
-        <v>0.809</v>
+        <v>0.82</v>
       </c>
       <c r="E68" t="n">
-        <v>0.948</v>
+        <v>0.885</v>
       </c>
       <c r="F68" t="n">
         <v>0.053</v>
@@ -3559,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>40.461</v>
+        <v>38.722</v>
       </c>
       <c r="I68" t="n">
         <v>3580.539</v>
@@ -3574,10 +3584,10 @@
         <v>100</v>
       </c>
       <c r="M68" t="n">
-        <v>53.096</v>
+        <v>53.814</v>
       </c>
       <c r="N68" t="n">
-        <v>190.112</v>
+        <v>192.682</v>
       </c>
       <c r="O68" t="s">
         <v>17</v>
@@ -3591,13 +3601,13 @@
         <v>36</v>
       </c>
       <c r="C69" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D69" t="n">
-        <v>0.809</v>
+        <v>0.82</v>
       </c>
       <c r="E69" t="n">
-        <v>0.948</v>
+        <v>0.885</v>
       </c>
       <c r="F69" t="n">
         <v>0.053</v>
@@ -3606,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>40.461</v>
+        <v>38.722</v>
       </c>
       <c r="I69" t="n">
         <v>1101.603</v>
@@ -3621,10 +3631,10 @@
         <v>100</v>
       </c>
       <c r="M69" t="n">
-        <v>53.096</v>
+        <v>53.814</v>
       </c>
       <c r="N69" t="n">
-        <v>58.491</v>
+        <v>59.281</v>
       </c>
       <c r="O69" t="s">
         <v>17</v>
@@ -3638,13 +3648,13 @@
         <v>36</v>
       </c>
       <c r="C70" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D70" t="n">
-        <v>0.809</v>
+        <v>0.82</v>
       </c>
       <c r="E70" t="n">
-        <v>0.948</v>
+        <v>0.885</v>
       </c>
       <c r="F70" t="n">
         <v>0.053</v>
@@ -3653,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>40.461</v>
+        <v>38.722</v>
       </c>
       <c r="I70" t="n">
         <v>694.594</v>
@@ -3668,10 +3678,10 @@
         <v>100</v>
       </c>
       <c r="M70" t="n">
-        <v>53.096</v>
+        <v>53.814</v>
       </c>
       <c r="N70" t="n">
-        <v>36.88</v>
+        <v>37.379</v>
       </c>
       <c r="O70" t="s">
         <v>17</v>
@@ -3685,13 +3695,13 @@
         <v>36</v>
       </c>
       <c r="C71" t="n">
-        <v>2.1</v>
+        <v>2.117</v>
       </c>
       <c r="D71" t="n">
-        <v>0.907</v>
+        <v>0.904</v>
       </c>
       <c r="E71" t="n">
-        <v>3.006</v>
+        <v>3.02</v>
       </c>
       <c r="F71" t="n">
         <v>0.052</v>
@@ -3700,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>98.006</v>
+        <v>98.39</v>
       </c>
       <c r="I71" t="n">
         <v>4489.55</v>
@@ -3715,10 +3725,10 @@
         <v>100</v>
       </c>
       <c r="M71" t="n">
-        <v>59.439</v>
+        <v>59.635</v>
       </c>
       <c r="N71" t="n">
-        <v>266.854</v>
+        <v>267.733</v>
       </c>
       <c r="O71" t="s">
         <v>23</v>
@@ -3732,13 +3742,13 @@
         <v>36</v>
       </c>
       <c r="C72" t="n">
-        <v>1.659</v>
+        <v>1.688</v>
       </c>
       <c r="D72" t="n">
-        <v>0.995</v>
+        <v>0.989</v>
       </c>
       <c r="E72" t="n">
-        <v>2.654</v>
+        <v>2.677</v>
       </c>
       <c r="F72" t="n">
         <v>0.05</v>
@@ -3747,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>87.561</v>
+        <v>88.215</v>
       </c>
       <c r="I72" t="n">
         <v>3414.587</v>
@@ -3762,10 +3772,10 @@
         <v>100</v>
       </c>
       <c r="M72" t="n">
-        <v>65.168</v>
+        <v>64.79</v>
       </c>
       <c r="N72" t="n">
-        <v>222.523</v>
+        <v>221.231</v>
       </c>
       <c r="O72" t="s">
         <v>23</v>
@@ -3779,13 +3789,13 @@
         <v>36</v>
       </c>
       <c r="C73" t="n">
-        <v>1.176</v>
+        <v>1.139</v>
       </c>
       <c r="D73" t="n">
-        <v>1.091</v>
+        <v>1.098</v>
       </c>
       <c r="E73" t="n">
-        <v>2.266</v>
+        <v>2.237</v>
       </c>
       <c r="F73" t="n">
         <v>0.048</v>
@@ -3794,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>76.162</v>
+        <v>75.329</v>
       </c>
       <c r="I73" t="n">
         <v>1038.461</v>
@@ -3809,10 +3819,10 @@
         <v>100</v>
       </c>
       <c r="M73" t="n">
-        <v>71.451</v>
+        <v>71.933</v>
       </c>
       <c r="N73" t="n">
-        <v>74.199</v>
+        <v>74.7</v>
       </c>
       <c r="O73" t="s">
         <v>23</v>
@@ -3826,13 +3836,13 @@
         <v>36</v>
       </c>
       <c r="C74" t="n">
-        <v>2.065</v>
+        <v>2.382</v>
       </c>
       <c r="D74" t="n">
-        <v>0.855</v>
+        <v>0.793</v>
       </c>
       <c r="E74" t="n">
-        <v>2.921</v>
+        <v>3.174</v>
       </c>
       <c r="F74" t="n">
         <v>0.054</v>
@@ -3841,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>96.144</v>
+        <v>103.242</v>
       </c>
       <c r="I74" t="n">
         <v>2714.889</v>
@@ -3856,9 +3866,11 @@
         <v>100</v>
       </c>
       <c r="M74" t="n">
-        <v>56.089</v>
-      </c>
-      <c r="N74"/>
+        <v>51.978</v>
+      </c>
+      <c r="N74" t="n">
+        <v>136.243</v>
+      </c>
       <c r="O74" t="s">
         <v>23</v>
       </c>
@@ -3871,13 +3883,13 @@
         <v>36</v>
       </c>
       <c r="C75" t="n">
-        <v>2.607</v>
+        <v>2.338</v>
       </c>
       <c r="D75" t="n">
-        <v>0.748</v>
+        <v>0.801</v>
       </c>
       <c r="E75" t="n">
-        <v>3.355</v>
+        <v>3.14</v>
       </c>
       <c r="F75" t="n">
         <v>0.052</v>
@@ -3886,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>107.777</v>
+        <v>101.753</v>
       </c>
       <c r="I75" t="n">
         <v>974.173</v>
@@ -3901,10 +3913,10 @@
         <v>100</v>
       </c>
       <c r="M75" t="n">
-        <v>49.054</v>
+        <v>52.543</v>
       </c>
       <c r="N75" t="n">
-        <v>47.787</v>
+        <v>51.186</v>
       </c>
       <c r="O75" t="s">
         <v>23</v>
@@ -3918,13 +3930,13 @@
         <v>36</v>
       </c>
       <c r="C76" t="n">
-        <v>3.049</v>
+        <v>2.775</v>
       </c>
       <c r="D76" t="n">
-        <v>0.66</v>
+        <v>0.714</v>
       </c>
       <c r="E76" t="n">
-        <v>3.709</v>
+        <v>3.49</v>
       </c>
       <c r="F76" t="n">
         <v>0.061</v>
@@ -3933,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>119.947</v>
+        <v>113.813</v>
       </c>
       <c r="I76" t="n">
         <v>192.501</v>
@@ -3948,10 +3960,10 @@
         <v>100</v>
       </c>
       <c r="M76" t="n">
-        <v>43.291</v>
+        <v>46.844</v>
       </c>
       <c r="N76" t="n">
-        <v>8.334</v>
+        <v>9.018</v>
       </c>
       <c r="O76" t="s">
         <v>23</v>
@@ -3965,13 +3977,13 @@
         <v>36</v>
       </c>
       <c r="C77" t="n">
-        <v>1.618</v>
+        <v>1.944</v>
       </c>
       <c r="D77" t="n">
-        <v>0.883</v>
+        <v>0.818</v>
       </c>
       <c r="E77" t="n">
-        <v>2.501</v>
+        <v>2.762</v>
       </c>
       <c r="F77" t="n">
         <v>0.037</v>
@@ -3980,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>79.827</v>
+        <v>87.137</v>
       </c>
       <c r="I77" t="n">
         <v>2356.999</v>
@@ -3995,10 +4007,10 @@
         <v>100</v>
       </c>
       <c r="M77" t="n">
-        <v>57.847</v>
+        <v>53.613</v>
       </c>
       <c r="N77" t="n">
-        <v>136.344</v>
+        <v>126.365</v>
       </c>
       <c r="O77" t="s">
         <v>23</v>
@@ -4012,13 +4024,13 @@
         <v>36</v>
       </c>
       <c r="C78" t="n">
-        <v>2.808</v>
+        <v>3.058</v>
       </c>
       <c r="D78" t="n">
-        <v>0.646</v>
+        <v>0.596</v>
       </c>
       <c r="E78" t="n">
-        <v>3.454</v>
+        <v>3.655</v>
       </c>
       <c r="F78" t="n">
         <v>0.041</v>
@@ -4027,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>107.6</v>
+        <v>113.214</v>
       </c>
       <c r="I78" t="n">
         <v>528.293</v>
@@ -4042,10 +4054,10 @@
         <v>100</v>
       </c>
       <c r="M78" t="n">
-        <v>42.37</v>
+        <v>39.119</v>
       </c>
       <c r="N78" t="n">
-        <v>22.384</v>
+        <v>20.666</v>
       </c>
       <c r="O78" t="s">
         <v>23</v>
@@ -4059,13 +4071,13 @@
         <v>37</v>
       </c>
       <c r="C79" t="n">
-        <v>0.188</v>
+        <v>0.193</v>
       </c>
       <c r="D79" t="n">
-        <v>4.29</v>
+        <v>4.287</v>
       </c>
       <c r="E79" t="n">
-        <v>4.479</v>
+        <v>4.48</v>
       </c>
       <c r="F79" t="n">
         <v>0.053</v>
@@ -4074,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>139.405</v>
+        <v>139.451</v>
       </c>
       <c r="I79" t="n">
         <v>4489.55</v>
@@ -4089,10 +4101,10 @@
         <v>100</v>
       </c>
       <c r="M79" t="n">
-        <v>18.04</v>
+        <v>18.574</v>
       </c>
       <c r="N79" t="n">
-        <v>80.991</v>
+        <v>83.387</v>
       </c>
       <c r="O79" t="s">
         <v>23</v>
@@ -4106,13 +4118,13 @@
         <v>37</v>
       </c>
       <c r="C80" t="n">
-        <v>0.158</v>
+        <v>0.165</v>
       </c>
       <c r="D80" t="n">
-        <v>4.31</v>
+        <v>4.305</v>
       </c>
       <c r="E80" t="n">
-        <v>4.468</v>
+        <v>4.471</v>
       </c>
       <c r="F80" t="n">
         <v>0.051</v>
@@ -4121,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>138.56</v>
+        <v>138.631</v>
       </c>
       <c r="I80" t="n">
         <v>3414.587</v>
@@ -4136,10 +4148,10 @@
         <v>100</v>
       </c>
       <c r="M80" t="n">
-        <v>14.17</v>
+        <v>14.373</v>
       </c>
       <c r="N80" t="n">
-        <v>48.385</v>
+        <v>49.079</v>
       </c>
       <c r="O80" t="s">
         <v>23</v>
@@ -4153,13 +4165,13 @@
         <v>37</v>
       </c>
       <c r="C81" t="n">
-        <v>0.127</v>
+        <v>0.118</v>
       </c>
       <c r="D81" t="n">
-        <v>4.331</v>
+        <v>4.337</v>
       </c>
       <c r="E81" t="n">
-        <v>4.458</v>
+        <v>4.455</v>
       </c>
       <c r="F81" t="n">
         <v>0.049</v>
@@ -4168,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>137.712</v>
+        <v>137.629</v>
       </c>
       <c r="I81" t="n">
         <v>1038.461</v>
@@ -4183,10 +4195,10 @@
         <v>100</v>
       </c>
       <c r="M81" t="n">
-        <v>9.9</v>
+        <v>9.633</v>
       </c>
       <c r="N81" t="n">
-        <v>10.281</v>
+        <v>10.004</v>
       </c>
       <c r="O81" t="s">
         <v>23</v>
@@ -4200,13 +4212,13 @@
         <v>37</v>
       </c>
       <c r="C82" t="n">
-        <v>0.185</v>
+        <v>0.206</v>
       </c>
       <c r="D82" t="n">
-        <v>4.098</v>
+        <v>4.084</v>
       </c>
       <c r="E82" t="n">
-        <v>4.283</v>
+        <v>4.29</v>
       </c>
       <c r="F82" t="n">
         <v>0.055</v>
@@ -4215,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>134.481</v>
+        <v>134.686</v>
       </c>
       <c r="I82" t="n">
         <v>2714.889</v>
@@ -4230,9 +4242,11 @@
         <v>100</v>
       </c>
       <c r="M82" t="n">
-        <v>17.751</v>
-      </c>
-      <c r="N82"/>
+        <v>20.533</v>
+      </c>
+      <c r="N82" t="n">
+        <v>32.293</v>
+      </c>
       <c r="O82" t="s">
         <v>23</v>
       </c>
@@ -4245,13 +4259,13 @@
         <v>38</v>
       </c>
       <c r="C83" t="n">
-        <v>1.636</v>
+        <v>1.453</v>
       </c>
       <c r="D83" t="n">
-        <v>1.168</v>
+        <v>1.223</v>
       </c>
       <c r="E83" t="n">
-        <v>2.804</v>
+        <v>2.676</v>
       </c>
       <c r="F83" t="n">
         <v>0.051</v>
@@ -4260,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>92.021</v>
+        <v>88.441</v>
       </c>
       <c r="I83" t="n">
         <v>7301.987</v>
@@ -4275,10 +4289,10 @@
         <v>100</v>
       </c>
       <c r="M83" t="n">
-        <v>15.197</v>
+        <v>22.833</v>
       </c>
       <c r="N83" t="n">
-        <v>110.966</v>
+        <v>166.729</v>
       </c>
       <c r="O83" t="s">
         <v>17</v>
@@ -4292,13 +4306,13 @@
         <v>38</v>
       </c>
       <c r="C84" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D84" t="n">
-        <v>1.619</v>
+        <v>1.641</v>
       </c>
       <c r="E84" t="n">
-        <v>1.757</v>
+        <v>1.706</v>
       </c>
       <c r="F84" t="n">
         <v>0.053</v>
@@ -4307,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>63.343</v>
+        <v>61.912</v>
       </c>
       <c r="I84" t="n">
         <v>2895.335</v>
@@ -4322,10 +4336,10 @@
         <v>100</v>
       </c>
       <c r="M84" t="n">
-        <v>30.213</v>
+        <v>30.624</v>
       </c>
       <c r="N84" t="n">
-        <v>87.478</v>
+        <v>88.666</v>
       </c>
       <c r="O84" t="s">
         <v>17</v>
@@ -4339,13 +4353,13 @@
         <v>38</v>
       </c>
       <c r="C85" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D85" t="n">
-        <v>1.619</v>
+        <v>1.641</v>
       </c>
       <c r="E85" t="n">
-        <v>1.757</v>
+        <v>1.706</v>
       </c>
       <c r="F85" t="n">
         <v>0.053</v>
@@ -4354,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>63.343</v>
+        <v>61.912</v>
       </c>
       <c r="I85" t="n">
         <v>3580.539</v>
@@ -4369,10 +4383,10 @@
         <v>100</v>
       </c>
       <c r="M85" t="n">
-        <v>30.213</v>
+        <v>30.624</v>
       </c>
       <c r="N85" t="n">
-        <v>108.18</v>
+        <v>109.649</v>
       </c>
       <c r="O85" t="s">
         <v>17</v>
@@ -4386,13 +4400,13 @@
         <v>38</v>
       </c>
       <c r="C86" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D86" t="n">
-        <v>1.619</v>
+        <v>1.641</v>
       </c>
       <c r="E86" t="n">
-        <v>1.757</v>
+        <v>1.706</v>
       </c>
       <c r="F86" t="n">
         <v>0.053</v>
@@ -4401,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>63.343</v>
+        <v>61.912</v>
       </c>
       <c r="I86" t="n">
         <v>1101.603</v>
@@ -4416,10 +4430,10 @@
         <v>100</v>
       </c>
       <c r="M86" t="n">
-        <v>30.213</v>
+        <v>30.624</v>
       </c>
       <c r="N86" t="n">
-        <v>33.283</v>
+        <v>33.735</v>
       </c>
       <c r="O86" t="s">
         <v>17</v>
@@ -4433,13 +4447,13 @@
         <v>38</v>
       </c>
       <c r="C87" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D87" t="n">
-        <v>1.619</v>
+        <v>1.641</v>
       </c>
       <c r="E87" t="n">
-        <v>1.757</v>
+        <v>1.706</v>
       </c>
       <c r="F87" t="n">
         <v>0.053</v>
@@ -4448,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>63.343</v>
+        <v>61.912</v>
       </c>
       <c r="I87" t="n">
         <v>694.594</v>
@@ -4463,10 +4477,10 @@
         <v>100</v>
       </c>
       <c r="M87" t="n">
-        <v>30.213</v>
+        <v>30.624</v>
       </c>
       <c r="N87" t="n">
-        <v>20.986</v>
+        <v>21.271</v>
       </c>
       <c r="O87" t="s">
         <v>17</v>
@@ -4480,13 +4494,13 @@
         <v>38</v>
       </c>
       <c r="C88" t="n">
-        <v>2.1</v>
+        <v>2.117</v>
       </c>
       <c r="D88" t="n">
-        <v>1.814</v>
+        <v>1.807</v>
       </c>
       <c r="E88" t="n">
-        <v>3.913</v>
+        <v>3.924</v>
       </c>
       <c r="F88" t="n">
         <v>0.053</v>
@@ -4495,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>123.584</v>
+        <v>123.873</v>
       </c>
       <c r="I88" t="n">
         <v>4489.55</v>
@@ -4510,10 +4524,10 @@
         <v>100</v>
       </c>
       <c r="M88" t="n">
-        <v>33.861</v>
+        <v>34.152</v>
       </c>
       <c r="N88" t="n">
-        <v>152.019</v>
+        <v>153.326</v>
       </c>
       <c r="O88" t="s">
         <v>23</v>
@@ -4527,13 +4541,13 @@
         <v>38</v>
       </c>
       <c r="C89" t="n">
-        <v>1.659</v>
+        <v>1.688</v>
       </c>
       <c r="D89" t="n">
-        <v>1.989</v>
+        <v>1.978</v>
       </c>
       <c r="E89" t="n">
-        <v>3.648</v>
+        <v>3.666</v>
       </c>
       <c r="F89" t="n">
         <v>0.051</v>
@@ -4542,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>115.598</v>
+        <v>116.089</v>
       </c>
       <c r="I89" t="n">
         <v>3414.587</v>
@@ -4557,10 +4571,10 @@
         <v>100</v>
       </c>
       <c r="M89" t="n">
-        <v>37.132</v>
+        <v>36.916</v>
       </c>
       <c r="N89" t="n">
-        <v>126.789</v>
+        <v>126.051</v>
       </c>
       <c r="O89" t="s">
         <v>23</v>
@@ -4574,13 +4588,13 @@
         <v>38</v>
       </c>
       <c r="C90" t="n">
-        <v>1.176</v>
+        <v>1.139</v>
       </c>
       <c r="D90" t="n">
-        <v>2.181</v>
+        <v>2.196</v>
       </c>
       <c r="E90" t="n">
-        <v>3.357</v>
+        <v>3.335</v>
       </c>
       <c r="F90" t="n">
         <v>0.049</v>
@@ -4589,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>106.894</v>
+        <v>106.268</v>
       </c>
       <c r="I90" t="n">
         <v>1038.461</v>
@@ -4604,10 +4618,10 @@
         <v>100</v>
       </c>
       <c r="M90" t="n">
-        <v>40.719</v>
+        <v>40.994</v>
       </c>
       <c r="N90" t="n">
-        <v>42.285</v>
+        <v>42.571</v>
       </c>
       <c r="O90" t="s">
         <v>23</v>
@@ -4621,13 +4635,13 @@
         <v>38</v>
       </c>
       <c r="C91" t="n">
-        <v>2.065</v>
+        <v>2.382</v>
       </c>
       <c r="D91" t="n">
-        <v>1.711</v>
+        <v>1.585</v>
       </c>
       <c r="E91" t="n">
-        <v>3.776</v>
+        <v>3.967</v>
       </c>
       <c r="F91" t="n">
         <v>0.055</v>
@@ -4636,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>120.295</v>
+        <v>125.631</v>
       </c>
       <c r="I91" t="n">
         <v>2714.889</v>
@@ -4651,9 +4665,11 @@
         <v>100</v>
       </c>
       <c r="M91" t="n">
-        <v>31.938</v>
-      </c>
-      <c r="N91"/>
+        <v>29.588</v>
+      </c>
+      <c r="N91" t="n">
+        <v>77.557</v>
+      </c>
       <c r="O91" t="s">
         <v>23</v>
       </c>
@@ -4666,13 +4682,13 @@
         <v>38</v>
       </c>
       <c r="C92" t="n">
-        <v>2.607</v>
+        <v>2.338</v>
       </c>
       <c r="D92" t="n">
-        <v>1.495</v>
+        <v>1.602</v>
       </c>
       <c r="E92" t="n">
-        <v>4.102</v>
+        <v>3.941</v>
       </c>
       <c r="F92" t="n">
         <v>0.053</v>
@@ -4681,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>128.916</v>
+        <v>124.387</v>
       </c>
       <c r="I92" t="n">
         <v>974.173</v>
@@ -4696,10 +4712,10 @@
         <v>100</v>
       </c>
       <c r="M92" t="n">
-        <v>27.915</v>
+        <v>29.909</v>
       </c>
       <c r="N92" t="n">
-        <v>27.194</v>
+        <v>29.136</v>
       </c>
       <c r="O92" t="s">
         <v>23</v>
@@ -4713,13 +4729,13 @@
         <v>38</v>
       </c>
       <c r="C93" t="n">
-        <v>3.049</v>
+        <v>2.775</v>
       </c>
       <c r="D93" t="n">
-        <v>1.32</v>
+        <v>1.428</v>
       </c>
       <c r="E93" t="n">
-        <v>4.369</v>
+        <v>4.204</v>
       </c>
       <c r="F93" t="n">
         <v>0.061</v>
@@ -4728,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>138.605</v>
+        <v>133.993</v>
       </c>
       <c r="I93" t="n">
         <v>192.501</v>
@@ -4743,10 +4759,10 @@
         <v>100</v>
       </c>
       <c r="M93" t="n">
-        <v>24.634</v>
+        <v>26.664</v>
       </c>
       <c r="N93" t="n">
-        <v>4.742</v>
+        <v>5.133</v>
       </c>
       <c r="O93" t="s">
         <v>23</v>
@@ -4760,13 +4776,13 @@
         <v>38</v>
       </c>
       <c r="C94" t="n">
-        <v>1.618</v>
+        <v>1.944</v>
       </c>
       <c r="D94" t="n">
-        <v>1.766</v>
+        <v>1.636</v>
       </c>
       <c r="E94" t="n">
-        <v>3.384</v>
+        <v>3.58</v>
       </c>
       <c r="F94" t="n">
         <v>0.038</v>
@@ -4775,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>104.71</v>
+        <v>110.206</v>
       </c>
       <c r="I94" t="n">
         <v>2356.999</v>
@@ -4790,10 +4806,10 @@
         <v>100</v>
       </c>
       <c r="M94" t="n">
-        <v>32.963</v>
+        <v>30.543</v>
       </c>
       <c r="N94" t="n">
-        <v>77.693</v>
+        <v>71.99</v>
       </c>
       <c r="O94" t="s">
         <v>23</v>
@@ -4807,13 +4823,13 @@
         <v>38</v>
       </c>
       <c r="C95" t="n">
-        <v>2.808</v>
+        <v>3.058</v>
       </c>
       <c r="D95" t="n">
-        <v>1.292</v>
+        <v>1.193</v>
       </c>
       <c r="E95" t="n">
-        <v>4.101</v>
+        <v>4.251</v>
       </c>
       <c r="F95" t="n">
         <v>0.042</v>
@@ -4822,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>125.846</v>
+        <v>130.066</v>
       </c>
       <c r="I95" t="n">
         <v>528.293</v>
@@ -4837,10 +4853,10 @@
         <v>100</v>
       </c>
       <c r="M95" t="n">
-        <v>24.125</v>
+        <v>22.267</v>
       </c>
       <c r="N95" t="n">
-        <v>12.745</v>
+        <v>11.764</v>
       </c>
       <c r="O95" t="s">
         <v>23</v>
@@ -4854,13 +4870,13 @@
         <v>39</v>
       </c>
       <c r="C96" t="n">
-        <v>0.138</v>
+        <v>0.059</v>
       </c>
       <c r="D96" t="n">
-        <v>2.698</v>
+        <v>2.737</v>
       </c>
       <c r="E96" t="n">
-        <v>2.836</v>
+        <v>2.796</v>
       </c>
       <c r="F96" t="n">
         <v>0.053</v>
@@ -4869,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>93.556</v>
+        <v>92.446</v>
       </c>
       <c r="I96" t="n">
         <v>7301.987</v>
@@ -4884,10 +4900,10 @@
         <v>100</v>
       </c>
       <c r="M96" t="n">
-        <v>13.661</v>
+        <v>18.828</v>
       </c>
       <c r="N96" t="n">
-        <v>99.755</v>
+        <v>137.484</v>
       </c>
       <c r="O96" t="s">
         <v>17</v>
@@ -4901,13 +4917,13 @@
         <v>39</v>
       </c>
       <c r="C97" t="n">
-        <v>1.003</v>
+        <v>1.024</v>
       </c>
       <c r="D97" t="n">
-        <v>3.75</v>
+        <v>3.736</v>
       </c>
       <c r="E97" t="n">
-        <v>4.753</v>
+        <v>4.76</v>
       </c>
       <c r="F97" t="n">
         <v>0.053</v>
@@ -4916,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>147.09</v>
+        <v>147.29</v>
       </c>
       <c r="I97" t="n">
         <v>4489.55</v>
@@ -4931,10 +4947,10 @@
         <v>100</v>
       </c>
       <c r="M97" t="n">
-        <v>10.356</v>
+        <v>10.735</v>
       </c>
       <c r="N97" t="n">
-        <v>46.492</v>
+        <v>48.195</v>
       </c>
       <c r="O97" t="s">
         <v>23</v>
@@ -4948,13 +4964,13 @@
         <v>39</v>
       </c>
       <c r="C98" t="n">
-        <v>0.867</v>
+        <v>0.901</v>
       </c>
       <c r="D98" t="n">
-        <v>3.84</v>
+        <v>3.818</v>
       </c>
       <c r="E98" t="n">
-        <v>4.707</v>
+        <v>4.719</v>
       </c>
       <c r="F98" t="n">
         <v>0.051</v>
@@ -4963,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>145.256</v>
+        <v>145.574</v>
       </c>
       <c r="I98" t="n">
         <v>3414.587</v>
@@ -4978,10 +4994,10 @@
         <v>100</v>
       </c>
       <c r="M98" t="n">
-        <v>7.474</v>
+        <v>7.43</v>
       </c>
       <c r="N98" t="n">
-        <v>25.52</v>
+        <v>25.372</v>
       </c>
       <c r="O98" t="s">
         <v>23</v>
@@ -4995,13 +5011,13 @@
         <v>39</v>
       </c>
       <c r="C99" t="n">
-        <v>0.729</v>
+        <v>0.688</v>
       </c>
       <c r="D99" t="n">
-        <v>3.932</v>
+        <v>3.959</v>
       </c>
       <c r="E99" t="n">
-        <v>4.661</v>
+        <v>4.647</v>
       </c>
       <c r="F99" t="n">
         <v>0.049</v>
@@ -5010,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>143.392</v>
+        <v>143.013</v>
       </c>
       <c r="I99" t="n">
         <v>1038.461</v>
@@ -5025,10 +5041,10 @@
         <v>100</v>
       </c>
       <c r="M99" t="n">
-        <v>4.221</v>
+        <v>4.25</v>
       </c>
       <c r="N99" t="n">
-        <v>4.383</v>
+        <v>4.413</v>
       </c>
       <c r="O99" t="s">
         <v>23</v>
@@ -5042,13 +5058,13 @@
         <v>39</v>
       </c>
       <c r="C100" t="n">
-        <v>0.978</v>
+        <v>1.072</v>
       </c>
       <c r="D100" t="n">
-        <v>3.572</v>
+        <v>3.51</v>
       </c>
       <c r="E100" t="n">
-        <v>4.55</v>
+        <v>4.582</v>
       </c>
       <c r="F100" t="n">
         <v>0.055</v>
@@ -5057,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>141.969</v>
+        <v>142.858</v>
       </c>
       <c r="I100" t="n">
         <v>2714.889</v>
@@ -5072,9 +5088,11 @@
         <v>100</v>
       </c>
       <c r="M100" t="n">
-        <v>10.263</v>
-      </c>
-      <c r="N100"/>
+        <v>12.362</v>
+      </c>
+      <c r="N100" t="n">
+        <v>19.442</v>
+      </c>
       <c r="O100" t="s">
         <v>23</v>
       </c>
@@ -5087,13 +5105,13 @@
         <v>39</v>
       </c>
       <c r="C101" t="n">
-        <v>1.121</v>
+        <v>1.067</v>
       </c>
       <c r="D101" t="n">
-        <v>3.478</v>
+        <v>3.513</v>
       </c>
       <c r="E101" t="n">
-        <v>4.598</v>
+        <v>4.58</v>
       </c>
       <c r="F101" t="n">
         <v>0.053</v>
@@ -5102,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>142.801</v>
+        <v>142.293</v>
       </c>
       <c r="I101" t="n">
         <v>974.173</v>
@@ -5117,10 +5135,10 @@
         <v>100</v>
       </c>
       <c r="M101" t="n">
-        <v>14.03</v>
+        <v>12.003</v>
       </c>
       <c r="N101" t="n">
-        <v>13.668</v>
+        <v>11.693</v>
       </c>
       <c r="O101" t="s">
         <v>23</v>
@@ -5134,13 +5152,13 @@
         <v>39</v>
       </c>
       <c r="C102" t="n">
-        <v>0.813</v>
+        <v>1.053</v>
       </c>
       <c r="D102" t="n">
-        <v>3.476</v>
+        <v>3.317</v>
       </c>
       <c r="E102" t="n">
-        <v>4.29</v>
+        <v>4.37</v>
       </c>
       <c r="F102" t="n">
         <v>0.038</v>
@@ -5149,7 +5167,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>130.078</v>
+        <v>132.343</v>
       </c>
       <c r="I102" t="n">
         <v>2356.999</v>
@@ -5164,10 +5182,10 @@
         <v>100</v>
       </c>
       <c r="M102" t="n">
-        <v>7.595</v>
+        <v>8.406</v>
       </c>
       <c r="N102" t="n">
-        <v>17.902</v>
+        <v>19.813</v>
       </c>
       <c r="O102" t="s">
         <v>23</v>
@@ -5181,13 +5199,13 @@
         <v>39</v>
       </c>
       <c r="C103" t="n">
-        <v>1.202</v>
+        <v>1.304</v>
       </c>
       <c r="D103" t="n">
-        <v>3.219</v>
+        <v>3.151</v>
       </c>
       <c r="E103" t="n">
-        <v>4.421</v>
+        <v>4.455</v>
       </c>
       <c r="F103" t="n">
         <v>0.042</v>
@@ -5196,7 +5214,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>134.807</v>
+        <v>135.776</v>
       </c>
       <c r="I103" t="n">
         <v>528.293</v>
@@ -5211,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>15.163</v>
+        <v>16.557</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -5228,22 +5246,22 @@
         <v>40</v>
       </c>
       <c r="C104" t="n">
-        <v>0.229</v>
+        <v>0.151</v>
       </c>
       <c r="D104" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="E104" t="n">
-        <v>0.58</v>
+        <v>0.504</v>
       </c>
       <c r="F104" t="n">
         <v>0.015</v>
       </c>
       <c r="G104" t="n">
-        <v>31.732</v>
+        <v>31.926</v>
       </c>
       <c r="H104" t="n">
-        <v>-11.548</v>
+        <v>-13.873</v>
       </c>
       <c r="I104" t="n">
         <v>7301.987</v>
@@ -5258,10 +5276,10 @@
         <v>100</v>
       </c>
       <c r="M104" t="n">
-        <v>118.766</v>
+        <v>125.147</v>
       </c>
       <c r="N104" t="n">
-        <v>598.386</v>
+        <v>630.538</v>
       </c>
       <c r="O104" t="s">
         <v>17</v>
@@ -5275,22 +5293,22 @@
         <v>40</v>
       </c>
       <c r="C105" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="D105" t="n">
         <v>0.156</v>
       </c>
       <c r="E105" t="n">
-        <v>1.376</v>
+        <v>1.396</v>
       </c>
       <c r="F105" t="n">
         <v>0.018</v>
       </c>
       <c r="G105" t="n">
-        <v>26.432</v>
+        <v>26.366</v>
       </c>
       <c r="H105" t="n">
-        <v>16.784</v>
+        <v>17.411</v>
       </c>
       <c r="I105" t="n">
         <v>4489.55</v>
@@ -5305,10 +5323,10 @@
         <v>100</v>
       </c>
       <c r="M105" t="n">
-        <v>140.661</v>
+        <v>140.614</v>
       </c>
       <c r="N105" t="n">
-        <v>505.205</v>
+        <v>505.036</v>
       </c>
       <c r="O105" t="s">
         <v>23</v>
@@ -5322,22 +5340,22 @@
         <v>40</v>
       </c>
       <c r="C106" t="n">
-        <v>1.09</v>
+        <v>1.122</v>
       </c>
       <c r="D106" t="n">
-        <v>0.159</v>
+        <v>0.158</v>
       </c>
       <c r="E106" t="n">
-        <v>1.248</v>
+        <v>1.28</v>
       </c>
       <c r="F106" t="n">
         <v>0.016</v>
       </c>
       <c r="G106" t="n">
-        <v>26.852</v>
+        <v>26.747</v>
       </c>
       <c r="H106" t="n">
-        <v>12.233</v>
+        <v>13.229</v>
       </c>
       <c r="I106" t="n">
         <v>3414.587</v>
@@ -5352,10 +5370,10 @@
         <v>100</v>
       </c>
       <c r="M106" t="n">
-        <v>140.497</v>
+        <v>139.776</v>
       </c>
       <c r="N106" t="n">
-        <v>383.79</v>
+        <v>381.822</v>
       </c>
       <c r="O106" t="s">
         <v>23</v>
@@ -5369,22 +5387,22 @@
         <v>40</v>
       </c>
       <c r="C107" t="n">
-        <v>0.957</v>
+        <v>0.918</v>
       </c>
       <c r="D107" t="n">
-        <v>0.161</v>
+        <v>0.162</v>
       </c>
       <c r="E107" t="n">
-        <v>1.118</v>
+        <v>1.08</v>
       </c>
       <c r="F107" t="n">
         <v>0.013</v>
       </c>
       <c r="G107" t="n">
-        <v>27.282</v>
+        <v>27.407</v>
       </c>
       <c r="H107" t="n">
-        <v>7.587</v>
+        <v>6.402</v>
       </c>
       <c r="I107" t="n">
         <v>1038.461</v>
@@ -5399,10 +5417,10 @@
         <v>100</v>
       </c>
       <c r="M107" t="n">
-        <v>140.026</v>
+        <v>140.86</v>
       </c>
       <c r="N107" t="n">
-        <v>116.329</v>
+        <v>117.022</v>
       </c>
       <c r="O107" t="s">
         <v>23</v>
@@ -5416,22 +5434,22 @@
         <v>40</v>
       </c>
       <c r="C108" t="n">
-        <v>1.185</v>
+        <v>1.276</v>
       </c>
       <c r="D108" t="n">
-        <v>0.149</v>
+        <v>0.147</v>
       </c>
       <c r="E108" t="n">
-        <v>1.334</v>
+        <v>1.423</v>
       </c>
       <c r="F108" t="n">
         <v>0.017</v>
       </c>
       <c r="G108" t="n">
-        <v>25.207</v>
+        <v>24.914</v>
       </c>
       <c r="H108" t="n">
-        <v>16.776</v>
+        <v>19.554</v>
       </c>
       <c r="I108" t="n">
         <v>2714.889</v>
@@ -5440,15 +5458,17 @@
         <v>208.09</v>
       </c>
       <c r="K108" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="L108" t="n">
         <v>100</v>
       </c>
       <c r="M108" t="n">
-        <v>135.456</v>
-      </c>
-      <c r="N108"/>
+        <v>135.665</v>
+      </c>
+      <c r="N108" t="n">
+        <v>170.691</v>
+      </c>
       <c r="O108" t="s">
         <v>23</v>
       </c>
@@ -5461,22 +5481,22 @@
         <v>40</v>
       </c>
       <c r="C109" t="n">
-        <v>1.322</v>
+        <v>1.271</v>
       </c>
       <c r="D109" t="n">
-        <v>0.146</v>
+        <v>0.147</v>
       </c>
       <c r="E109" t="n">
-        <v>1.468</v>
+        <v>1.418</v>
       </c>
       <c r="F109" t="n">
         <v>0.016</v>
       </c>
       <c r="G109" t="n">
-        <v>24.763</v>
+        <v>24.93</v>
       </c>
       <c r="H109" t="n">
-        <v>20.475</v>
+        <v>18.886</v>
       </c>
       <c r="I109" t="n">
         <v>974.173</v>
@@ -5491,10 +5511,10 @@
         <v>100</v>
       </c>
       <c r="M109" t="n">
-        <v>136.357</v>
+        <v>135.41</v>
       </c>
       <c r="N109" t="n">
-        <v>106.268</v>
+        <v>105.53</v>
       </c>
       <c r="O109" t="s">
         <v>23</v>
@@ -5508,22 +5528,22 @@
         <v>40</v>
       </c>
       <c r="C110" t="n">
-        <v>1.015</v>
+        <v>1.245</v>
       </c>
       <c r="D110" t="n">
-        <v>0.144</v>
+        <v>0.139</v>
       </c>
       <c r="E110" t="n">
-        <v>1.158</v>
+        <v>1.385</v>
       </c>
       <c r="F110" t="n">
         <v>0.009</v>
       </c>
       <c r="G110" t="n">
-        <v>24.346</v>
+        <v>23.601</v>
       </c>
       <c r="H110" t="n">
-        <v>10.488</v>
+        <v>17.572</v>
       </c>
       <c r="I110" t="n">
         <v>2356.999</v>
@@ -5538,10 +5558,10 @@
         <v>100</v>
       </c>
       <c r="M110" t="n">
-        <v>127.185</v>
+        <v>123.177</v>
       </c>
       <c r="N110" t="n">
-        <v>239.82</v>
+        <v>232.263</v>
       </c>
       <c r="O110" t="s">
         <v>23</v>
@@ -5555,22 +5575,22 @@
         <v>40</v>
       </c>
       <c r="C111" t="n">
-        <v>1.388</v>
+        <v>1.487</v>
       </c>
       <c r="D111" t="n">
-        <v>0.137</v>
+        <v>0.135</v>
       </c>
       <c r="E111" t="n">
-        <v>1.525</v>
+        <v>1.622</v>
       </c>
       <c r="F111" t="n">
         <v>0.013</v>
       </c>
       <c r="G111" t="n">
-        <v>23.139</v>
+        <v>22.821</v>
       </c>
       <c r="H111" t="n">
-        <v>23.021</v>
+        <v>26.05</v>
       </c>
       <c r="I111" t="n">
         <v>528.293</v>
@@ -5585,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>126.949</v>
+        <v>126.283</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
@@ -5602,13 +5622,13 @@
         <v>41</v>
       </c>
       <c r="C112" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D112" t="n">
-        <v>0.971</v>
+        <v>0.984</v>
       </c>
       <c r="E112" t="n">
-        <v>1.109</v>
+        <v>1.05</v>
       </c>
       <c r="F112" t="n">
         <v>0.053</v>
@@ -5617,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>45.215</v>
+        <v>43.538</v>
       </c>
       <c r="I112" t="n">
         <v>7301.987</v>
@@ -5632,10 +5652,10 @@
         <v>100</v>
       </c>
       <c r="M112" t="n">
-        <v>62.003</v>
+        <v>67.737</v>
       </c>
       <c r="N112" t="n">
-        <v>452.742</v>
+        <v>494.613</v>
       </c>
       <c r="O112" t="s">
         <v>17</v>
@@ -5649,13 +5669,13 @@
         <v>41</v>
       </c>
       <c r="C113" t="n">
-        <v>1.003</v>
+        <v>1.024</v>
       </c>
       <c r="D113" t="n">
-        <v>1.35</v>
+        <v>1.345</v>
       </c>
       <c r="E113" t="n">
-        <v>2.353</v>
+        <v>2.369</v>
       </c>
       <c r="F113" t="n">
         <v>0.053</v>
@@ -5664,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>79.882</v>
+        <v>80.334</v>
       </c>
       <c r="I113" t="n">
         <v>4489.55</v>
@@ -5679,10 +5699,10 @@
         <v>100</v>
       </c>
       <c r="M113" t="n">
-        <v>77.563</v>
+        <v>77.69</v>
       </c>
       <c r="N113" t="n">
-        <v>348.225</v>
+        <v>348.795</v>
       </c>
       <c r="O113" t="s">
         <v>23</v>
@@ -5696,13 +5716,13 @@
         <v>41</v>
       </c>
       <c r="C114" t="n">
-        <v>0.867</v>
+        <v>0.901</v>
       </c>
       <c r="D114" t="n">
-        <v>1.382</v>
+        <v>1.374</v>
       </c>
       <c r="E114" t="n">
-        <v>2.25</v>
+        <v>2.275</v>
       </c>
       <c r="F114" t="n">
         <v>0.051</v>
@@ -5711,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>76.44</v>
+        <v>77.159</v>
       </c>
       <c r="I114" t="n">
         <v>3414.587</v>
@@ -5726,10 +5746,10 @@
         <v>100</v>
       </c>
       <c r="M114" t="n">
-        <v>76.289</v>
+        <v>75.845</v>
       </c>
       <c r="N114" t="n">
-        <v>260.497</v>
+        <v>258.98</v>
       </c>
       <c r="O114" t="s">
         <v>23</v>
@@ -5743,13 +5763,13 @@
         <v>41</v>
       </c>
       <c r="C115" t="n">
-        <v>0.729</v>
+        <v>0.688</v>
       </c>
       <c r="D115" t="n">
-        <v>1.416</v>
+        <v>1.425</v>
       </c>
       <c r="E115" t="n">
-        <v>2.144</v>
+        <v>2.114</v>
       </c>
       <c r="F115" t="n">
         <v>0.049</v>
@@ -5758,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>72.93</v>
+        <v>72.075</v>
       </c>
       <c r="I115" t="n">
         <v>1038.461</v>
@@ -5773,10 +5793,10 @@
         <v>100</v>
       </c>
       <c r="M115" t="n">
-        <v>74.682</v>
+        <v>75.188</v>
       </c>
       <c r="N115" t="n">
-        <v>77.555</v>
+        <v>78.08</v>
       </c>
       <c r="O115" t="s">
         <v>23</v>
@@ -5790,13 +5810,13 @@
         <v>41</v>
       </c>
       <c r="C116" t="n">
-        <v>0.978</v>
+        <v>1.072</v>
       </c>
       <c r="D116" t="n">
-        <v>1.286</v>
+        <v>1.264</v>
       </c>
       <c r="E116" t="n">
-        <v>2.264</v>
+        <v>2.336</v>
       </c>
       <c r="F116" t="n">
         <v>0.055</v>
@@ -5805,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>77.954</v>
+        <v>79.961</v>
       </c>
       <c r="I116" t="n">
         <v>2714.889</v>
@@ -5814,15 +5834,17 @@
         <v>208.09</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L116" t="n">
         <v>100</v>
       </c>
       <c r="M116" t="n">
-        <v>74.278</v>
-      </c>
-      <c r="N116"/>
+        <v>75.258</v>
+      </c>
+      <c r="N116" t="n">
+        <v>118.36</v>
+      </c>
       <c r="O116" t="s">
         <v>23</v>
       </c>
@@ -5835,13 +5857,13 @@
         <v>41</v>
       </c>
       <c r="C117" t="n">
-        <v>1.121</v>
+        <v>1.067</v>
       </c>
       <c r="D117" t="n">
-        <v>1.252</v>
+        <v>1.265</v>
       </c>
       <c r="E117" t="n">
-        <v>2.373</v>
+        <v>2.332</v>
       </c>
       <c r="F117" t="n">
         <v>0.053</v>
@@ -5850,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>80.482</v>
+        <v>79.335</v>
       </c>
       <c r="I117" t="n">
         <v>974.173</v>
@@ -5865,10 +5887,10 @@
         <v>100</v>
       </c>
       <c r="M117" t="n">
-        <v>76.349</v>
+        <v>74.961</v>
       </c>
       <c r="N117" t="n">
-        <v>74.377</v>
+        <v>73.025</v>
       </c>
       <c r="O117" t="s">
         <v>23</v>
@@ -5882,13 +5904,13 @@
         <v>41</v>
       </c>
       <c r="C118" t="n">
-        <v>1.737</v>
+        <v>1.642</v>
       </c>
       <c r="D118" t="n">
-        <v>1.105</v>
+        <v>1.128</v>
       </c>
       <c r="E118" t="n">
-        <v>2.842</v>
+        <v>2.769</v>
       </c>
       <c r="F118" t="n">
         <v>0.061</v>
@@ -5897,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>95.863</v>
+        <v>93.828</v>
       </c>
       <c r="I118" t="n">
         <v>192.501</v>
@@ -5912,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>67.376</v>
+        <v>66.83</v>
       </c>
       <c r="N118" t="n">
         <v>0</v>
@@ -5959,10 +5981,10 @@
         <v>100</v>
       </c>
       <c r="M119" t="n">
-        <v>70.932</v>
+        <v>74.008</v>
       </c>
       <c r="N119" t="n">
-        <v>167.186</v>
+        <v>174.437</v>
       </c>
       <c r="O119" t="s">
         <v>23</v>
@@ -5976,13 +5998,13 @@
         <v>41</v>
       </c>
       <c r="C120" t="n">
-        <v>1.202</v>
+        <v>1.304</v>
       </c>
       <c r="D120" t="n">
-        <v>1.159</v>
+        <v>1.134</v>
       </c>
       <c r="E120" t="n">
-        <v>2.361</v>
+        <v>2.439</v>
       </c>
       <c r="F120" t="n">
         <v>0.042</v>
@@ -5991,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>77.127</v>
+        <v>79.314</v>
       </c>
       <c r="I120" t="n">
         <v>528.293</v>
@@ -6006,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>72.844</v>
+        <v>73.019</v>
       </c>
       <c r="N120" t="n">
         <v>0</v>
@@ -6023,13 +6045,13 @@
         <v>42</v>
       </c>
       <c r="C121" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D121" t="n">
-        <v>0.809</v>
+        <v>0.82</v>
       </c>
       <c r="E121" t="n">
-        <v>0.948</v>
+        <v>0.885</v>
       </c>
       <c r="F121" t="n">
         <v>0.053</v>
@@ -6038,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>40.461</v>
+        <v>38.722</v>
       </c>
       <c r="I121" t="n">
         <v>7301.987</v>
@@ -6053,10 +6075,10 @@
         <v>100</v>
       </c>
       <c r="M121" t="n">
-        <v>66.757</v>
+        <v>72.553</v>
       </c>
       <c r="N121" t="n">
-        <v>487.46</v>
+        <v>529.78</v>
       </c>
       <c r="O121" t="s">
         <v>17</v>
@@ -6070,13 +6092,13 @@
         <v>42</v>
       </c>
       <c r="C122" t="n">
-        <v>1.003</v>
+        <v>1.024</v>
       </c>
       <c r="D122" t="n">
-        <v>1.125</v>
+        <v>1.121</v>
       </c>
       <c r="E122" t="n">
-        <v>2.128</v>
+        <v>2.145</v>
       </c>
       <c r="F122" t="n">
         <v>0.052</v>
@@ -6085,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>73.398</v>
+        <v>73.875</v>
       </c>
       <c r="I122" t="n">
         <v>4489.55</v>
@@ -6100,10 +6122,10 @@
         <v>100</v>
       </c>
       <c r="M122" t="n">
-        <v>84.047</v>
+        <v>84.15</v>
       </c>
       <c r="N122" t="n">
-        <v>377.332</v>
+        <v>377.796</v>
       </c>
       <c r="O122" t="s">
         <v>23</v>
@@ -6117,13 +6139,13 @@
         <v>42</v>
       </c>
       <c r="C123" t="n">
-        <v>0.867</v>
+        <v>0.901</v>
       </c>
       <c r="D123" t="n">
-        <v>1.152</v>
+        <v>1.145</v>
       </c>
       <c r="E123" t="n">
-        <v>2.019</v>
+        <v>2.046</v>
       </c>
       <c r="F123" t="n">
         <v>0.05</v>
@@ -6132,7 +6154,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>69.801</v>
+        <v>70.558</v>
       </c>
       <c r="I123" t="n">
         <v>3414.587</v>
@@ -6147,10 +6169,10 @@
         <v>100</v>
       </c>
       <c r="M123" t="n">
-        <v>82.929</v>
+        <v>82.447</v>
       </c>
       <c r="N123" t="n">
-        <v>283.167</v>
+        <v>281.523</v>
       </c>
       <c r="O123" t="s">
         <v>23</v>
@@ -6164,13 +6186,13 @@
         <v>42</v>
       </c>
       <c r="C124" t="n">
-        <v>0.729</v>
+        <v>0.688</v>
       </c>
       <c r="D124" t="n">
-        <v>1.18</v>
+        <v>1.188</v>
       </c>
       <c r="E124" t="n">
-        <v>1.908</v>
+        <v>1.876</v>
       </c>
       <c r="F124" t="n">
         <v>0.048</v>
@@ -6179,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>66.131</v>
+        <v>65.231</v>
       </c>
       <c r="I124" t="n">
         <v>1038.461</v>
@@ -6194,10 +6216,10 @@
         <v>100</v>
       </c>
       <c r="M124" t="n">
-        <v>81.481</v>
+        <v>82.031</v>
       </c>
       <c r="N124" t="n">
-        <v>84.615</v>
+        <v>85.186</v>
       </c>
       <c r="O124" t="s">
         <v>23</v>
@@ -6211,13 +6233,13 @@
         <v>42</v>
       </c>
       <c r="C125" t="n">
-        <v>0.978</v>
+        <v>1.072</v>
       </c>
       <c r="D125" t="n">
-        <v>1.072</v>
+        <v>1.053</v>
       </c>
       <c r="E125" t="n">
-        <v>2.05</v>
+        <v>2.125</v>
       </c>
       <c r="F125" t="n">
         <v>0.054</v>
@@ -6226,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>71.755</v>
+        <v>73.866</v>
       </c>
       <c r="I125" t="n">
         <v>2714.889</v>
@@ -6235,15 +6257,17 @@
         <v>208.09</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L125" t="n">
         <v>100</v>
       </c>
       <c r="M125" t="n">
-        <v>80.477</v>
-      </c>
-      <c r="N125"/>
+        <v>81.353</v>
+      </c>
+      <c r="N125" t="n">
+        <v>127.945</v>
+      </c>
       <c r="O125" t="s">
         <v>23</v>
       </c>
@@ -6256,13 +6280,13 @@
         <v>42</v>
       </c>
       <c r="C126" t="n">
-        <v>1.121</v>
+        <v>1.067</v>
       </c>
       <c r="D126" t="n">
-        <v>1.043</v>
+        <v>1.054</v>
       </c>
       <c r="E126" t="n">
-        <v>2.164</v>
+        <v>2.121</v>
       </c>
       <c r="F126" t="n">
         <v>0.052</v>
@@ -6271,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>74.437</v>
+        <v>73.23</v>
       </c>
       <c r="I126" t="n">
         <v>974.173</v>
@@ -6286,10 +6310,10 @@
         <v>100</v>
       </c>
       <c r="M126" t="n">
-        <v>82.394</v>
+        <v>81.066</v>
       </c>
       <c r="N126" t="n">
-        <v>80.266</v>
+        <v>78.973</v>
       </c>
       <c r="O126" t="s">
         <v>23</v>
@@ -6303,13 +6327,13 @@
         <v>42</v>
       </c>
       <c r="C127" t="n">
-        <v>1.737</v>
+        <v>1.642</v>
       </c>
       <c r="D127" t="n">
-        <v>0.921</v>
+        <v>0.94</v>
       </c>
       <c r="E127" t="n">
-        <v>2.658</v>
+        <v>2.581</v>
       </c>
       <c r="F127" t="n">
         <v>0.061</v>
@@ -6318,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>90.526</v>
+        <v>88.384</v>
       </c>
       <c r="I127" t="n">
         <v>192.501</v>
@@ -6333,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>72.713</v>
+        <v>72.273</v>
       </c>
       <c r="N127" t="n">
         <v>0</v>
@@ -6350,13 +6374,13 @@
         <v>42</v>
       </c>
       <c r="C128" t="n">
-        <v>0.813</v>
+        <v>1.053</v>
       </c>
       <c r="D128" t="n">
-        <v>1.043</v>
+        <v>0.995</v>
       </c>
       <c r="E128" t="n">
-        <v>1.856</v>
+        <v>2.048</v>
       </c>
       <c r="F128" t="n">
         <v>0.037</v>
@@ -6365,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>61.778</v>
+        <v>67.161</v>
       </c>
       <c r="I128" t="n">
         <v>2356.999</v>
@@ -6380,10 +6404,10 @@
         <v>100</v>
       </c>
       <c r="M128" t="n">
-        <v>75.896</v>
+        <v>73.588</v>
       </c>
       <c r="N128" t="n">
-        <v>178.886</v>
+        <v>173.447</v>
       </c>
       <c r="O128" t="s">
         <v>23</v>
@@ -6397,13 +6421,13 @@
         <v>42</v>
       </c>
       <c r="C129" t="n">
-        <v>1.202</v>
+        <v>1.304</v>
       </c>
       <c r="D129" t="n">
-        <v>0.966</v>
+        <v>0.945</v>
       </c>
       <c r="E129" t="n">
-        <v>2.167</v>
+        <v>2.25</v>
       </c>
       <c r="F129" t="n">
         <v>0.041</v>
@@ -6412,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>71.567</v>
+        <v>73.869</v>
       </c>
       <c r="I129" t="n">
         <v>528.293</v>
@@ -6427,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>78.403</v>
+        <v>78.464</v>
       </c>
       <c r="N129" t="n">
         <v>0</v>
@@ -6444,13 +6468,13 @@
         <v>43</v>
       </c>
       <c r="C130" t="n">
-        <v>0.138</v>
+        <v>0.065</v>
       </c>
       <c r="D130" t="n">
-        <v>1.619</v>
+        <v>1.641</v>
       </c>
       <c r="E130" t="n">
-        <v>1.757</v>
+        <v>1.706</v>
       </c>
       <c r="F130" t="n">
         <v>0.053</v>
@@ -6459,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>63.343</v>
+        <v>61.912</v>
       </c>
       <c r="I130" t="n">
         <v>7301.987</v>
@@ -6474,10 +6498,10 @@
         <v>100</v>
       </c>
       <c r="M130" t="n">
-        <v>43.875</v>
+        <v>49.363</v>
       </c>
       <c r="N130" t="n">
-        <v>320.372</v>
+        <v>360.445</v>
       </c>
       <c r="O130" t="s">
         <v>17</v>
@@ -6491,13 +6515,13 @@
         <v>43</v>
       </c>
       <c r="C131" t="n">
-        <v>1.003</v>
+        <v>1.024</v>
       </c>
       <c r="D131" t="n">
-        <v>2.25</v>
+        <v>2.242</v>
       </c>
       <c r="E131" t="n">
-        <v>3.253</v>
+        <v>3.266</v>
       </c>
       <c r="F131" t="n">
         <v>0.053</v>
@@ -6506,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>105.085</v>
+        <v>105.443</v>
       </c>
       <c r="I131" t="n">
         <v>4489.55</v>
@@ -6521,10 +6545,10 @@
         <v>100</v>
       </c>
       <c r="M131" t="n">
-        <v>52.36</v>
+        <v>52.582</v>
       </c>
       <c r="N131" t="n">
-        <v>235.075</v>
+        <v>236.07</v>
       </c>
       <c r="O131" t="s">
         <v>23</v>
@@ -6538,13 +6562,13 @@
         <v>43</v>
       </c>
       <c r="C132" t="n">
-        <v>0.867</v>
+        <v>0.901</v>
       </c>
       <c r="D132" t="n">
-        <v>2.304</v>
+        <v>2.291</v>
       </c>
       <c r="E132" t="n">
-        <v>3.171</v>
+        <v>3.192</v>
       </c>
       <c r="F132" t="n">
         <v>0.051</v>
@@ -6553,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>102.246</v>
+        <v>102.815</v>
       </c>
       <c r="I132" t="n">
         <v>3414.587</v>
@@ -6568,10 +6592,10 @@
         <v>100</v>
       </c>
       <c r="M132" t="n">
-        <v>50.484</v>
+        <v>50.19</v>
       </c>
       <c r="N132" t="n">
-        <v>172.38</v>
+        <v>171.377</v>
       </c>
       <c r="O132" t="s">
         <v>23</v>
@@ -6585,13 +6609,13 @@
         <v>43</v>
       </c>
       <c r="C133" t="n">
-        <v>0.729</v>
+        <v>0.688</v>
       </c>
       <c r="D133" t="n">
-        <v>2.359</v>
+        <v>2.375</v>
       </c>
       <c r="E133" t="n">
-        <v>3.088</v>
+        <v>3.064</v>
       </c>
       <c r="F133" t="n">
         <v>0.049</v>
@@ -6600,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>99.353</v>
+        <v>98.676</v>
       </c>
       <c r="I133" t="n">
         <v>1038.461</v>
@@ -6615,10 +6639,10 @@
         <v>100</v>
       </c>
       <c r="M133" t="n">
-        <v>48.259</v>
+        <v>48.586</v>
       </c>
       <c r="N133" t="n">
-        <v>50.116</v>
+        <v>50.455</v>
       </c>
       <c r="O133" t="s">
         <v>23</v>
@@ -6632,13 +6656,13 @@
         <v>43</v>
       </c>
       <c r="C134" t="n">
-        <v>0.978</v>
+        <v>1.072</v>
       </c>
       <c r="D134" t="n">
-        <v>2.143</v>
+        <v>2.106</v>
       </c>
       <c r="E134" t="n">
-        <v>3.121</v>
+        <v>3.178</v>
       </c>
       <c r="F134" t="n">
         <v>0.055</v>
@@ -6647,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>101.96</v>
+        <v>103.547</v>
       </c>
       <c r="I134" t="n">
         <v>2714.889</v>
@@ -6656,15 +6680,17 @@
         <v>208.09</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L134" t="n">
         <v>100</v>
       </c>
       <c r="M134" t="n">
-        <v>50.273</v>
-      </c>
-      <c r="N134"/>
+        <v>51.672</v>
+      </c>
+      <c r="N134" t="n">
+        <v>81.266</v>
+      </c>
       <c r="O134" t="s">
         <v>23</v>
       </c>
@@ -6677,13 +6703,13 @@
         <v>43</v>
       </c>
       <c r="C135" t="n">
-        <v>1.121</v>
+        <v>1.067</v>
       </c>
       <c r="D135" t="n">
-        <v>2.087</v>
+        <v>2.108</v>
       </c>
       <c r="E135" t="n">
-        <v>3.207</v>
+        <v>3.175</v>
       </c>
       <c r="F135" t="n">
         <v>0.053</v>
@@ -6692,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>103.852</v>
+        <v>102.944</v>
       </c>
       <c r="I135" t="n">
         <v>974.173</v>
@@ -6707,10 +6733,10 @@
         <v>100</v>
       </c>
       <c r="M135" t="n">
-        <v>52.979</v>
+        <v>51.352</v>
       </c>
       <c r="N135" t="n">
-        <v>51.611</v>
+        <v>50.026</v>
       </c>
       <c r="O135" t="s">
         <v>23</v>
@@ -6724,13 +6750,13 @@
         <v>43</v>
       </c>
       <c r="C136" t="n">
-        <v>1.737</v>
+        <v>1.642</v>
       </c>
       <c r="D136" t="n">
-        <v>1.841</v>
+        <v>1.879</v>
       </c>
       <c r="E136" t="n">
-        <v>3.579</v>
+        <v>3.521</v>
       </c>
       <c r="F136" t="n">
         <v>0.061</v>
@@ -6739,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>116.486</v>
+        <v>114.876</v>
       </c>
       <c r="I136" t="n">
         <v>192.501</v>
@@ -6754,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="M136" t="n">
-        <v>46.753</v>
+        <v>45.782</v>
       </c>
       <c r="N136" t="n">
         <v>0</v>
@@ -6771,13 +6797,13 @@
         <v>43</v>
       </c>
       <c r="C137" t="n">
-        <v>0.813</v>
+        <v>1.053</v>
       </c>
       <c r="D137" t="n">
-        <v>2.086</v>
+        <v>1.99</v>
       </c>
       <c r="E137" t="n">
-        <v>2.899</v>
+        <v>3.044</v>
       </c>
       <c r="F137" t="n">
         <v>0.038</v>
@@ -6786,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>91.142</v>
+        <v>95.189</v>
       </c>
       <c r="I137" t="n">
         <v>2356.999</v>
@@ -6801,10 +6827,10 @@
         <v>100</v>
       </c>
       <c r="M137" t="n">
-        <v>46.532</v>
+        <v>45.561</v>
       </c>
       <c r="N137" t="n">
-        <v>109.675</v>
+        <v>107.386</v>
       </c>
       <c r="O137" t="s">
         <v>23</v>
@@ -6818,13 +6844,13 @@
         <v>43</v>
       </c>
       <c r="C138" t="n">
-        <v>1.202</v>
+        <v>1.304</v>
       </c>
       <c r="D138" t="n">
-        <v>1.931</v>
+        <v>1.89</v>
       </c>
       <c r="E138" t="n">
-        <v>3.133</v>
+        <v>3.195</v>
       </c>
       <c r="F138" t="n">
         <v>0.042</v>
@@ -6833,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>98.757</v>
+        <v>100.487</v>
       </c>
       <c r="I138" t="n">
         <v>528.293</v>
@@ -6848,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>51.214</v>
+        <v>51.846</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>

--- a/output/emis_table_KVIK.xlsx
+++ b/output/emis_table_KVIK.xlsx
@@ -2868,7 +2868,7 @@
         <v>4.42</v>
       </c>
       <c r="O50" t="n">
-        <v>18.832</v>
+        <v>24.797</v>
       </c>
       <c r="P50" t="s">
         <v>24</v>
@@ -2918,7 +2918,7 @@
         <v>3.036</v>
       </c>
       <c r="O51" t="n">
-        <v>9.839</v>
+        <v>14.375</v>
       </c>
       <c r="P51" t="s">
         <v>24</v>
@@ -2968,7 +2968,7 @@
         <v>1.834</v>
       </c>
       <c r="O52" t="n">
-        <v>1.808</v>
+        <v>3.187</v>
       </c>
       <c r="P52" t="s">
         <v>24</v>
@@ -3018,7 +3018,7 @@
         <v>3.744</v>
       </c>
       <c r="O53" t="n">
-        <v>8.812</v>
+        <v>13.049</v>
       </c>
       <c r="P53" t="s">
         <v>24</v>
@@ -3068,7 +3068,7 @@
         <v>3.31</v>
       </c>
       <c r="O54" t="n">
-        <v>2.895</v>
+        <v>4.47</v>
       </c>
       <c r="P54" t="s">
         <v>24</v>
@@ -3118,7 +3118,7 @@
         <v>5.425</v>
       </c>
       <c r="O55" t="n">
-        <v>0.938</v>
+        <v>1.249</v>
       </c>
       <c r="P55" t="s">
         <v>24</v>
@@ -3168,7 +3168,7 @@
         <v>2.366</v>
       </c>
       <c r="O56" t="n">
-        <v>5.332</v>
+        <v>8.261</v>
       </c>
       <c r="P56" t="s">
         <v>24</v>
@@ -3218,7 +3218,7 @@
         <v>4.237</v>
       </c>
       <c r="O57" t="n">
-        <v>2.14</v>
+        <v>2.796</v>
       </c>
       <c r="P57" t="s">
         <v>24</v>
@@ -3268,7 +3268,7 @@
         <v>96.137</v>
       </c>
       <c r="O58" t="n">
-        <v>336.656</v>
+        <v>341.559</v>
       </c>
       <c r="P58" t="s">
         <v>24</v>
@@ -3318,7 +3318,7 @@
         <v>101.115</v>
       </c>
       <c r="O59" t="n">
-        <v>269.306</v>
+        <v>273.035</v>
       </c>
       <c r="P59" t="s">
         <v>24</v>
@@ -3368,7 +3368,7 @@
         <v>107.918</v>
       </c>
       <c r="O60" t="n">
-        <v>87.413</v>
+        <v>88.547</v>
       </c>
       <c r="P60" t="s">
         <v>24</v>
@@ -3418,7 +3418,7 @@
         <v>87.034</v>
       </c>
       <c r="O61" t="n">
-        <v>177.945</v>
+        <v>181.625</v>
       </c>
       <c r="P61" t="s">
         <v>24</v>
@@ -3468,7 +3468,7 @@
         <v>87.257</v>
       </c>
       <c r="O62" t="n">
-        <v>66.302</v>
+        <v>67.67</v>
       </c>
       <c r="P62" t="s">
         <v>24</v>
@@ -3518,7 +3518,7 @@
         <v>82.664</v>
       </c>
       <c r="O63" t="n">
-        <v>12.412</v>
+        <v>12.682</v>
       </c>
       <c r="P63" t="s">
         <v>24</v>
@@ -3568,7 +3568,7 @@
         <v>84.6</v>
       </c>
       <c r="O64" t="n">
-        <v>155.534</v>
+        <v>157.924</v>
       </c>
       <c r="P64" t="s">
         <v>24</v>
@@ -3618,7 +3618,7 @@
         <v>69.285</v>
       </c>
       <c r="O65" t="n">
-        <v>28.55</v>
+        <v>29.086</v>
       </c>
       <c r="P65" t="s">
         <v>24</v>
